--- a/develop/shaps_for_targets.xlsx
+++ b/develop/shaps_for_targets.xlsx
@@ -17,8 +17,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -651,7 +651,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>1409</v>
+        <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -729,66 +729,66 @@
         <v>46.87402963789663</v>
       </c>
       <c r="Y2" t="n">
-        <v>-15.54975062971105</v>
+        <v>-0.7531998885001742</v>
       </c>
       <c r="Z2" t="n">
-        <v>-3.794297468796221</v>
+        <v>-0.183788441273988</v>
       </c>
       <c r="AA2" t="n">
-        <v>-2.408829027537948</v>
+        <v>-0.1166790258032118</v>
       </c>
       <c r="AB2" t="n">
-        <v>-2.817350772011838</v>
+        <v>-0.1364670301072621</v>
       </c>
       <c r="AC2" t="n">
-        <v>8.455178384091703</v>
+        <v>0.85881234433049</v>
       </c>
       <c r="AD2" t="n">
-        <v>-12.67795364733157</v>
+        <v>-0.6140955891173643</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0.009497126937875118</v>
+        <v>-0.0004600224865993535</v>
       </c>
       <c r="AF2" t="n">
-        <v>10.87685777841661</v>
+        <v>0.9761138170823129</v>
       </c>
       <c r="AG2" t="n">
-        <v>-1.736236968754212</v>
+        <v>-0.08409996548606091</v>
       </c>
       <c r="AH2" t="n">
-        <v>22.20958874902924</v>
+        <v>1.52504941783455</v>
       </c>
       <c r="AI2" t="n">
-        <v>9.057978984406393</v>
+        <v>0.8880108411910985</v>
       </c>
       <c r="AJ2" t="n">
-        <v>20.54627319816443</v>
+        <v>1.444481624994308</v>
       </c>
       <c r="AK2" t="n">
-        <v>9.714193979288213</v>
+        <v>0.9197966281626748</v>
       </c>
       <c r="AL2" t="n">
-        <v>-25.48161578598033</v>
+        <v>-1.234280254767102</v>
       </c>
       <c r="AM2" t="n">
-        <v>-12.38418625709806</v>
+        <v>-0.599866064101954</v>
       </c>
       <c r="AN2" t="n">
-        <v>-2.239764461380377</v>
+        <v>-0.1084898647413036</v>
       </c>
       <c r="AO2" t="n">
-        <v>1.544312970337974</v>
+        <v>0.5240633709846877</v>
       </c>
       <c r="AP2" t="n">
         <v>43.56912773970154</v>
       </c>
       <c r="AQ2" t="n">
-        <v>43.72921080472949</v>
+        <v>46.87402963789663</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>1410</v>
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -866,66 +866,66 @@
         <v>51.36055585131786</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.4980344558893132</v>
+        <v>0.6838517681264827</v>
       </c>
       <c r="Z3" t="n">
-        <v>-0.5406846165594408</v>
+        <v>-0.183283065404077</v>
       </c>
       <c r="AA3" t="n">
-        <v>-0.3405993454370997</v>
+        <v>-0.1154574962823468</v>
       </c>
       <c r="AB3" t="n">
-        <v>-0.4986271947270135</v>
+        <v>-0.1690263009977011</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.3225573410370555</v>
+        <v>0.6243679534711988</v>
       </c>
       <c r="AD3" t="n">
-        <v>-1.578458696737195</v>
+        <v>-0.5350711666121766</v>
       </c>
       <c r="AE3" t="n">
-        <v>2.400828296845783</v>
+        <v>1.328867138124825</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.40857615094321</v>
+        <v>0.9925102132467825</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.2251919611810894</v>
+        <v>0.5913627139328699</v>
       </c>
       <c r="AH3" t="n">
-        <v>3.921147899168357</v>
+        <v>1.844230121597011</v>
       </c>
       <c r="AI3" t="n">
-        <v>2.444478118321732</v>
+        <v>1.343663699446212</v>
       </c>
       <c r="AJ3" t="n">
-        <v>3.279356332612319</v>
+        <v>1.626673486793174</v>
       </c>
       <c r="AK3" t="n">
-        <v>1.329775894541847</v>
+        <v>0.9657982408593062</v>
       </c>
       <c r="AL3" t="n">
-        <v>-3.837807123982981</v>
+        <v>-1.30095259337913</v>
       </c>
       <c r="AM3" t="n">
-        <v>-1.599377942026824</v>
+        <v>-0.5421624417940396</v>
       </c>
       <c r="AN3" t="n">
-        <v>-0.1059345741992859</v>
+        <v>-0.03591005347085963</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.4629711547454568</v>
+        <v>0.6719658939587908</v>
       </c>
       <c r="AP3" t="n">
         <v>43.56912773970154</v>
       </c>
       <c r="AQ3" t="n">
-        <v>46.21029189424993</v>
+        <v>51.36055585131786</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>1411</v>
+        <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -1003,66 +1003,66 @@
         <v>49.53116952332383</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.1513205305435286</v>
+        <v>0.3245488357564193</v>
       </c>
       <c r="Z4" t="n">
-        <v>-0.2681397873714595</v>
+        <v>-0.1637318120407233</v>
       </c>
       <c r="AA4" t="n">
-        <v>-0.1904020727010384</v>
+        <v>-0.1162635231617581</v>
       </c>
       <c r="AB4" t="n">
-        <v>-0.2436708603777209</v>
+        <v>-0.148790568912836</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.5180674513782607</v>
+        <v>0.5484922441452702</v>
       </c>
       <c r="AD4" t="n">
-        <v>-1.598736106439629</v>
+        <v>-0.9762220006524592</v>
       </c>
       <c r="AE4" t="n">
-        <v>1.602030832981235</v>
+        <v>1.210383157073382</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.7870160075155122</v>
+        <v>0.7127179074597757</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.2089315388099124</v>
+        <v>0.3597273330224021</v>
       </c>
       <c r="AH4" t="n">
-        <v>2.118012002628518</v>
+        <v>1.525452146697835</v>
       </c>
       <c r="AI4" t="n">
-        <v>4.422625169103656</v>
+        <v>2.932697574535625</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1.662226060196814</v>
+        <v>1.247139632957941</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.7382185856599002</v>
+        <v>0.6829211720268999</v>
       </c>
       <c r="AL4" t="n">
-        <v>-2.782944773502624</v>
+        <v>-1.699324800103667</v>
       </c>
       <c r="AM4" t="n">
-        <v>-1.010780431588428</v>
+        <v>-0.6172038594556335</v>
       </c>
       <c r="AN4" t="n">
-        <v>-0.2375472680585783</v>
+        <v>-0.145051374232179</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.08581490484443829</v>
+        <v>0.2845497185060003</v>
       </c>
       <c r="AP4" t="n">
         <v>43.56912773970154</v>
       </c>
       <c r="AQ4" t="n">
-        <v>47.20967625457997</v>
+        <v>49.53116952332383</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>1412</v>
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -1140,66 +1140,66 @@
         <v>49.10230466179249</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.2633881774081743</v>
+        <v>0.2890028253490078</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.2814460075487021</v>
+        <v>0.3051303921552743</v>
       </c>
       <c r="AA5" t="n">
-        <v>-0.1301787788582329</v>
+        <v>-0.1162635231617581</v>
       </c>
       <c r="AB5" t="n">
-        <v>-0.1528003870057885</v>
+        <v>-0.1364670301072621</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.3423411754968649</v>
+        <v>0.3595162669597269</v>
       </c>
       <c r="AD5" t="n">
-        <v>-0.9038821300774849</v>
+        <v>-0.8072630722723728</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.9641570975445352</v>
+        <v>0.9148641546063712</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.5406729983138369</v>
+        <v>0.5366477217024859</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.07387307910169325</v>
+        <v>0.1197456452255598</v>
       </c>
       <c r="AH5" t="n">
-        <v>1.622980409002944</v>
+        <v>1.503263585013278</v>
       </c>
       <c r="AI5" t="n">
-        <v>3.191184556816819</v>
+        <v>2.903837018416573</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1.646385648408768</v>
+        <v>1.524166958186942</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.5314672325586308</v>
+        <v>0.5284259917900577</v>
       </c>
       <c r="AL5" t="n">
-        <v>-1.90796720479709</v>
+        <v>-1.704018053114287</v>
       </c>
       <c r="AM5" t="n">
-        <v>-0.7005384195094354</v>
+        <v>-0.6256554676322015</v>
       </c>
       <c r="AN5" t="n">
-        <v>-0.1655631120146018</v>
+        <v>-0.1478655037116677</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.03621057215262475</v>
+        <v>0.08610901268523258</v>
       </c>
       <c r="AP5" t="n">
         <v>43.56912773970154</v>
       </c>
       <c r="AQ5" t="n">
-        <v>48.51084442257348</v>
+        <v>49.10230466179249</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>1413</v>
+        <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -1277,66 +1277,66 @@
         <v>50.60134568224022</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.630652476519012</v>
+        <v>0.6299406844519708</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.006596700128863224</v>
+        <v>0.0158368464885779</v>
       </c>
       <c r="AA6" t="n">
-        <v>-0.1181476465823521</v>
+        <v>-0.1162635231617581</v>
       </c>
       <c r="AB6" t="n">
-        <v>-0.1386785640481893</v>
+        <v>-0.1364670301072621</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.5052716824911726</v>
+        <v>0.5065593622490389</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.4472551381293808</v>
+        <v>0.4494680189655249</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.2415416208053276</v>
+        <v>0.2470350549756667</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.6285163737732281</v>
+        <v>0.6278386465507144</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.08017633012474217</v>
+        <v>0.08824308786298102</v>
       </c>
       <c r="AH6" t="n">
-        <v>1.503116942935359</v>
+        <v>1.488491790912685</v>
       </c>
       <c r="AI6" t="n">
-        <v>3.037133471039</v>
+        <v>2.998045060104404</v>
       </c>
       <c r="AJ6" t="n">
-        <v>2.433711047663841</v>
+        <v>2.404245531076109</v>
       </c>
       <c r="AK6" t="n">
-        <v>0.4593674719919081</v>
+        <v>0.4613871950922142</v>
       </c>
       <c r="AL6" t="n">
-        <v>-2.018843986748931</v>
+        <v>-1.986649090379939</v>
       </c>
       <c r="AM6" t="n">
-        <v>-0.6075278130206021</v>
+        <v>-0.5978394492293138</v>
       </c>
       <c r="AN6" t="n">
-        <v>-0.1177166950698992</v>
+        <v>-0.1158394441166056</v>
       </c>
       <c r="AO6" t="n">
-        <v>0.05979339240682705</v>
+        <v>0.06818520080367606</v>
       </c>
       <c r="AP6" t="n">
         <v>43.56912773970154</v>
       </c>
       <c r="AQ6" t="n">
-        <v>50.48920153965653</v>
+        <v>50.60134568224022</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>1414</v>
+        <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -1414,66 +1414,66 @@
         <v>43.80892985638214</v>
       </c>
       <c r="Y7" t="n">
-        <v>-0.0913026630240148</v>
+        <v>-1.039008731325619</v>
       </c>
       <c r="Z7" t="n">
-        <v>-0.002731028766937172</v>
+        <v>-0.2583088844610281</v>
       </c>
       <c r="AA7" t="n">
-        <v>-0.01319028086438013</v>
+        <v>-0.3505002116199189</v>
       </c>
       <c r="AB7" t="n">
-        <v>-0.0187628569582285</v>
+        <v>-0.399618750976226</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.04407265829393166</v>
+        <v>0.3884710705587826</v>
       </c>
       <c r="AD7" t="n">
-        <v>-0.08936181196645172</v>
+        <v>-1.021901424498372</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.09989716456459501</v>
+        <v>0.8805268383263923</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.05386176582019287</v>
+        <v>0.4747555205499766</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.008637819022117963</v>
+        <v>0.07613661015036173</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.1030592375182405</v>
+        <v>0.9083984011737091</v>
       </c>
       <c r="AI7" t="n">
-        <v>0.2221323595512138</v>
+        <v>1.957948507328634</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0.1079660115869215</v>
+        <v>0.9516483400073972</v>
       </c>
       <c r="AK7" t="n">
-        <v>0.05338314470740943</v>
+        <v>0.470536794853083</v>
       </c>
       <c r="AL7" t="n">
-        <v>-0.159026893423814</v>
+        <v>-1.63595262589896</v>
       </c>
       <c r="AM7" t="n">
-        <v>-0.0713462488355298</v>
+        <v>-0.8631062583544642</v>
       </c>
       <c r="AN7" t="n">
-        <v>-0.01687841250032696</v>
+        <v>-0.3830086306815222</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.009392151955660797</v>
+        <v>0.08278555154837763</v>
       </c>
       <c r="AP7" t="n">
         <v>43.56912773970154</v>
       </c>
       <c r="AQ7" t="n">
-        <v>45.68282336404742</v>
+        <v>43.80892985638214</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>1415</v>
+        <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -1551,66 +1551,66 @@
         <v>46.15294964411741</v>
       </c>
       <c r="Y8" t="n">
-        <v>-1.215606129832422</v>
+        <v>-1.007004898704601</v>
       </c>
       <c r="Z8" t="n">
-        <v>-0.1974565306760192</v>
+        <v>-0.163572467094566</v>
       </c>
       <c r="AA8" t="n">
-        <v>-0.1403475311919068</v>
+        <v>-0.1162635231617581</v>
       </c>
       <c r="AB8" t="n">
-        <v>-0.1996409840904485</v>
+        <v>-0.1653820625180651</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.553477702550311</v>
+        <v>0.5077650943081715</v>
       </c>
       <c r="AD8" t="n">
-        <v>-1.266348525812831</v>
+        <v>-1.049039765155401</v>
       </c>
       <c r="AE8" t="n">
-        <v>1.057503437780788</v>
+        <v>0.9252986785787999</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.5345770301015987</v>
+        <v>0.4921078273056695</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.2184761632796567</v>
+        <v>0.2302507063496016</v>
       </c>
       <c r="AH8" t="n">
-        <v>1.515534668483907</v>
+        <v>1.304730537104656</v>
       </c>
       <c r="AI8" t="n">
-        <v>3.269978766081169</v>
+        <v>2.758107381319293</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0.7740400273523258</v>
+        <v>0.6904783400664195</v>
       </c>
       <c r="AK8" t="n">
-        <v>0.5692320747693393</v>
+        <v>0.5208159745326437</v>
       </c>
       <c r="AL8" t="n">
-        <v>-2.044119718784059</v>
+        <v>-1.693343361667635</v>
       </c>
       <c r="AM8" t="n">
-        <v>-0.7445162710539929</v>
+        <v>-0.6167553072638812</v>
       </c>
       <c r="AN8" t="n">
-        <v>-0.1795959227814985</v>
+        <v>-0.1487767868143885</v>
       </c>
       <c r="AO8" t="n">
-        <v>0.07863364823995254</v>
+        <v>0.114405537230911</v>
       </c>
       <c r="AP8" t="n">
         <v>43.56912773970154</v>
       </c>
       <c r="AQ8" t="n">
-        <v>45.70955896267153</v>
+        <v>46.15294964411741</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>1416</v>
+        <v>7</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1688,66 +1688,66 @@
         <v>46.95850065272416</v>
       </c>
       <c r="Y9" t="n">
-        <v>-0.8883882165067123</v>
+        <v>-0.825868649425609</v>
       </c>
       <c r="Z9" t="n">
-        <v>-0.1542302245331869</v>
+        <v>-0.1433764033213841</v>
       </c>
       <c r="AA9" t="n">
-        <v>-0.1250648563283002</v>
+        <v>-0.1162635231617581</v>
       </c>
       <c r="AB9" t="n">
-        <v>-0.1779017470451393</v>
+        <v>-0.1653820625180651</v>
       </c>
       <c r="AC9" t="n">
-        <v>1.329780096828358</v>
+        <v>1.262700644332623</v>
       </c>
       <c r="AD9" t="n">
-        <v>-0.6506004612831724</v>
+        <v>-0.6048150057509819</v>
       </c>
       <c r="AE9" t="n">
-        <v>1.023407969813657</v>
+        <v>0.9778891958487484</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.5099543920271549</v>
+        <v>0.5005694780155915</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.1735443474966318</v>
+        <v>0.1878340049786944</v>
       </c>
       <c r="AH9" t="n">
-        <v>1.403741507864878</v>
+        <v>1.331457083811895</v>
       </c>
       <c r="AI9" t="n">
-        <v>0.928028304909533</v>
+        <v>0.8892217939478353</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1.687664364927087</v>
+        <v>1.595399110671563</v>
       </c>
       <c r="AK9" t="n">
-        <v>0.5061571767750808</v>
+        <v>0.4970394885655513</v>
       </c>
       <c r="AL9" t="n">
-        <v>-1.497197205309802</v>
+        <v>-1.391833222118902</v>
       </c>
       <c r="AM9" t="n">
-        <v>-0.6705320691906861</v>
+        <v>-0.6233439436607913</v>
       </c>
       <c r="AN9" t="n">
-        <v>-0.1439541081795189</v>
+        <v>-0.1338234599384615</v>
       </c>
       <c r="AO9" t="n">
-        <v>0.1349636407567638</v>
+        <v>0.1519683827460749</v>
       </c>
       <c r="AP9" t="n">
         <v>43.56912773970154</v>
       </c>
       <c r="AQ9" t="n">
-        <v>46.71997640931195</v>
+        <v>46.95850065272416</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>1417</v>
+        <v>8</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1825,66 +1825,66 @@
         <v>50.70146284078054</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.2078939658246321</v>
+        <v>0.2477610459574257</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.2292468533524642</v>
+        <v>0.267181409038829</v>
       </c>
       <c r="AA10" t="n">
-        <v>-0.1278329309939517</v>
+        <v>-0.1162635231617581</v>
       </c>
       <c r="AB10" t="n">
-        <v>-0.1818392666124117</v>
+        <v>-0.1653820625180651</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.6822237914569412</v>
+        <v>0.6791620647709886</v>
       </c>
       <c r="AD10" t="n">
-        <v>-0.9856976759811386</v>
+        <v>-0.8964879682477627</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.9912251924962192</v>
+        <v>0.9601975637414814</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.5465524169399104</v>
+        <v>0.5557695095749047</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.140006822602685</v>
+        <v>0.1860179693730058</v>
       </c>
       <c r="AH10" t="n">
-        <v>1.770522768909597</v>
+        <v>1.668965493262909</v>
       </c>
       <c r="AI10" t="n">
-        <v>3.14253379516901</v>
+        <v>2.916803859241125</v>
       </c>
       <c r="AJ10" t="n">
-        <v>2.731136157071165</v>
+        <v>2.542639405263734</v>
       </c>
       <c r="AK10" t="n">
-        <v>0.5162422968008212</v>
+        <v>0.5282025804008141</v>
       </c>
       <c r="AL10" t="n">
-        <v>-1.864600154829001</v>
+        <v>-1.695846145455557</v>
       </c>
       <c r="AM10" t="n">
-        <v>-0.5750732841326649</v>
+        <v>-0.5230267785429232</v>
       </c>
       <c r="AN10" t="n">
-        <v>-0.1625796313265078</v>
+        <v>-0.1478655037116677</v>
       </c>
       <c r="AO10" t="n">
-        <v>0.07237398433123092</v>
+        <v>0.1245061820915213</v>
       </c>
       <c r="AP10" t="n">
         <v>43.56912773970154</v>
       </c>
       <c r="AQ10" t="n">
-        <v>50.05595707838698</v>
+        <v>50.70146284078054</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>1418</v>
+        <v>9</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1962,66 +1962,66 @@
         <v>51.73894045511721</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.6511202276826338</v>
+        <v>0.8679963237771119</v>
       </c>
       <c r="Z11" t="n">
-        <v>-0.09628121306354945</v>
+        <v>-0.5818862694428474</v>
       </c>
       <c r="AA11" t="n">
-        <v>-0.125891587062265</v>
+        <v>-0.6213593109547414</v>
       </c>
       <c r="AB11" t="n">
-        <v>-0.09120502515316965</v>
+        <v>-0.5751192972959476</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.5260413237538507</v>
+        <v>0.7012559520662641</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.3030959826804158</v>
+        <v>0.4040516444321623</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.5741527141440801</v>
+        <v>0.7653923560897608</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.4041363958716941</v>
+        <v>0.53874674907526</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.06402138522115175</v>
+        <v>0.08534572365053893</v>
       </c>
       <c r="AH11" t="n">
-        <v>2.161365273404972</v>
+        <v>2.881276040727531</v>
       </c>
       <c r="AI11" t="n">
-        <v>2.216387923923966</v>
+        <v>2.954625717706448</v>
       </c>
       <c r="AJ11" t="n">
-        <v>1.732559785092415</v>
+        <v>2.309643381125738</v>
       </c>
       <c r="AK11" t="n">
-        <v>0.3643150236774399</v>
+        <v>0.4856616148668045</v>
       </c>
       <c r="AL11" t="n">
-        <v>0.1160602315147539</v>
+        <v>0.1547177464445615</v>
       </c>
       <c r="AM11" t="n">
-        <v>-0.4014468588858998</v>
+        <v>-0.9886969435016115</v>
       </c>
       <c r="AN11" t="n">
-        <v>-0.1080703816596852</v>
+        <v>-0.5976021918896957</v>
       </c>
       <c r="AO11" t="n">
-        <v>-0.1205484857271309</v>
+        <v>-0.6142365214616687</v>
       </c>
       <c r="AP11" t="n">
         <v>43.56912773970154</v>
       </c>
       <c r="AQ11" t="n">
-        <v>54.46015385352203</v>
+        <v>51.7389404551172</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>1419</v>
+        <v>10</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -2099,66 +2099,66 @@
         <v>43.51141922876563</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.01343385332728742</v>
+        <v>0.6926930223117274</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.006229703980906623</v>
+        <v>0.4597530518148863</v>
       </c>
       <c r="AA12" t="n">
-        <v>-0.003492737238632631</v>
+        <v>-0.1129346533784779</v>
       </c>
       <c r="AB12" t="n">
-        <v>-0.008139457578397111</v>
+        <v>-0.2631823574180375</v>
       </c>
       <c r="AC12" t="n">
-        <v>-0.0341876170887636</v>
+        <v>-1.105427182740827</v>
       </c>
       <c r="AD12" t="n">
-        <v>-0.02615937213539108</v>
+        <v>-0.8458407898630189</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.008921285953868176</v>
+        <v>0.546783039010595</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.01994528294710613</v>
+        <v>0.9032344964824177</v>
       </c>
       <c r="AG12" t="n">
-        <v>-0.004480960314237983</v>
+        <v>-0.1448879962379584</v>
       </c>
       <c r="AH12" t="n">
-        <v>0.0300212274799699</v>
+        <v>1.229031493374524</v>
       </c>
       <c r="AI12" t="n">
-        <v>-0.01171886833098313</v>
+        <v>-0.3789195242942822</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0.03448989755368827</v>
+        <v>1.373522095260091</v>
       </c>
       <c r="AK12" t="n">
-        <v>0.01358041462106358</v>
+        <v>0.697431955641219</v>
       </c>
       <c r="AL12" t="n">
-        <v>-0.04520724091735256</v>
+        <v>-1.461737237696497</v>
       </c>
       <c r="AM12" t="n">
-        <v>-0.0185139072876931</v>
+        <v>-0.5986312623492527</v>
       </c>
       <c r="AN12" t="n">
-        <v>-0.003689729005348895</v>
+        <v>-0.1193042126589306</v>
       </c>
       <c r="AO12" t="n">
-        <v>-0.02874028690299325</v>
+        <v>-0.9292924481940804</v>
       </c>
       <c r="AP12" t="n">
         <v>43.56912773970154</v>
       </c>
       <c r="AQ12" t="n">
-        <v>41.70317269233995</v>
+        <v>43.51141922876563</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>1420</v>
+        <v>11</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -2236,66 +2236,66 @@
         <v>40.35942987977133</v>
       </c>
       <c r="Y13" t="n">
-        <v>-0.7298079336048127</v>
+        <v>-0.6231432100732737</v>
       </c>
       <c r="Z13" t="n">
-        <v>-0.2415062699047292</v>
+        <v>-0.2426976004545844</v>
       </c>
       <c r="AA13" t="n">
-        <v>-0.1525193758264717</v>
+        <v>-0.1733661283700041</v>
       </c>
       <c r="AB13" t="n">
-        <v>-0.2258580564503268</v>
+        <v>-0.2305057638304929</v>
       </c>
       <c r="AC13" t="n">
-        <v>-0.7266183888147145</v>
+        <v>-0.6206581718227788</v>
       </c>
       <c r="AD13" t="n">
-        <v>-0.8435918231096409</v>
+        <v>-0.7117945181180441</v>
       </c>
       <c r="AE13" t="n">
-        <v>-0.0448214314222495</v>
+        <v>-0.0894565020888414</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.8404644545660439</v>
+        <v>0.6548226957846491</v>
       </c>
       <c r="AG13" t="n">
-        <v>-0.07312213706419723</v>
+        <v>-0.1115061488768625</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.06805740704068602</v>
+        <v>0.05302488939821453</v>
       </c>
       <c r="AI13" t="n">
-        <v>-1.348286674858425</v>
+        <v>-1.105012388993276</v>
       </c>
       <c r="AJ13" t="n">
-        <v>1.998312649020486</v>
+        <v>1.55692542229855</v>
       </c>
       <c r="AK13" t="n">
-        <v>0.5828355934544647</v>
+        <v>0.4540988883368748</v>
       </c>
       <c r="AL13" t="n">
-        <v>-1.316806522227518</v>
+        <v>-1.080485571353943</v>
       </c>
       <c r="AM13" t="n">
-        <v>-0.7434220921326691</v>
+        <v>-0.6337502737505276</v>
       </c>
       <c r="AN13" t="n">
-        <v>-0.1422965587164617</v>
+        <v>-0.1654013267390458</v>
       </c>
       <c r="AO13" t="n">
-        <v>-0.1107106998796723</v>
+        <v>-0.1407921512768198</v>
       </c>
       <c r="AP13" t="n">
         <v>43.56912773970154</v>
       </c>
       <c r="AQ13" t="n">
-        <v>41.06838782872109</v>
+        <v>40.35942987977133</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>2830</v>
+        <v>12</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -2373,66 +2373,66 @@
         <v>48.17175907114863</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.7090405599810882</v>
+        <v>0.7583351088837632</v>
       </c>
       <c r="Z14" t="n">
-        <v>2.513634420299217</v>
+        <v>2.688389549763449</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.06876201394500654</v>
+        <v>0.07354254788110316</v>
       </c>
       <c r="AB14" t="n">
-        <v>-0.02137769614652059</v>
+        <v>-0.2031661698924748</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.3752294781601015</v>
+        <v>0.4013165159191004</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.3250764922805464</v>
+        <v>0.3476767495158459</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.1292255567706589</v>
+        <v>0.1382096909475198</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.5170041485257126</v>
+        <v>0.5529477711064383</v>
       </c>
       <c r="AG14" t="n">
-        <v>0.06875996205300097</v>
+        <v>0.07354035333563527</v>
       </c>
       <c r="AH14" t="n">
-        <v>1.121485057224742</v>
+        <v>1.199453939566902</v>
       </c>
       <c r="AI14" t="n">
-        <v>3.023292321537689</v>
+        <v>3.233480341240111</v>
       </c>
       <c r="AJ14" t="n">
-        <v>1.920099056140617</v>
+        <v>2.053589891733194</v>
       </c>
       <c r="AK14" t="n">
-        <v>-0.4020436354460714</v>
+        <v>-0.6102971054411611</v>
       </c>
       <c r="AL14" t="n">
-        <v>-0.2278855103336959</v>
+        <v>-0.4240310041427982</v>
       </c>
       <c r="AM14" t="n">
-        <v>0.4580984299757896</v>
+        <v>0.489946756761612</v>
       </c>
       <c r="AN14" t="n">
-        <v>-0.6575966699852426</v>
+        <v>-0.8836169255061902</v>
       </c>
       <c r="AO14" t="n">
-        <v>0.4528864274986278</v>
+        <v>0.4843724008092158</v>
       </c>
       <c r="AP14" t="n">
         <v>37.79806865866736</v>
       </c>
       <c r="AQ14" t="n">
-        <v>48.89296800925636</v>
+        <v>48.17175907114863</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>2831</v>
+        <v>13</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -2510,66 +2510,66 @@
         <v>51.26412404193616</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.8735586195242865</v>
+        <v>0.8835103543970706</v>
       </c>
       <c r="Z15" t="n">
-        <v>3.069860226394817</v>
+        <v>2.832287639523661</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.09360559575637011</v>
+        <v>0.1914584379253296</v>
       </c>
       <c r="AB15" t="n">
-        <v>-0.06540296885028098</v>
+        <v>-0.05803202059159759</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.4742147139210212</v>
+        <v>0.5291727125363657</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.4224744271297817</v>
+        <v>0.483263582702247</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.1717809419814906</v>
+        <v>0.2608233823864399</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.6276460664905867</v>
+        <v>0.6653122726853306</v>
       </c>
       <c r="AG15" t="n">
-        <v>0.09080746163167863</v>
+        <v>0.1889756549569621</v>
       </c>
       <c r="AH15" t="n">
-        <v>1.326608508445236</v>
+        <v>1.285501287607874</v>
       </c>
       <c r="AI15" t="n">
-        <v>3.741121986053863</v>
+        <v>3.427897853305546</v>
       </c>
       <c r="AJ15" t="n">
-        <v>2.307141338776296</v>
+        <v>2.155527563185196</v>
       </c>
       <c r="AK15" t="n">
-        <v>-0.4896205784396214</v>
+        <v>-0.434440087194237</v>
       </c>
       <c r="AL15" t="n">
-        <v>-0.3467070522293609</v>
+        <v>-0.3076329889593374</v>
       </c>
       <c r="AM15" t="n">
-        <v>0.5702643775271039</v>
+        <v>0.6143975296079576</v>
       </c>
       <c r="AN15" t="n">
-        <v>0.151490605319531</v>
+        <v>0.242819777111689</v>
       </c>
       <c r="AO15" t="n">
-        <v>0.4472111138359993</v>
+        <v>0.5052124320823</v>
       </c>
       <c r="AP15" t="n">
         <v>37.79806865866736</v>
       </c>
       <c r="AQ15" t="n">
-        <v>49.74649266795591</v>
+        <v>51.26412404193616</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>2832</v>
+        <v>14</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -2647,66 +2647,66 @@
         <v>50.85024770738527</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.187424141298592</v>
+        <v>1.187064389638717</v>
       </c>
       <c r="Z16" t="n">
-        <v>-1.623571934763839</v>
+        <v>-0.9463036152618991</v>
       </c>
       <c r="AA16" t="n">
-        <v>-0.3776307321551732</v>
+        <v>-0.2201031684650413</v>
       </c>
       <c r="AB16" t="n">
-        <v>-0.06097214667097568</v>
+        <v>-0.03553779268389219</v>
       </c>
       <c r="AC16" t="n">
-        <v>1.449853483846212</v>
+        <v>1.340022093751617</v>
       </c>
       <c r="AD16" t="n">
-        <v>1.00272229892192</v>
+        <v>1.079410384636467</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.1013037378845829</v>
+        <v>0.5540159595980174</v>
       </c>
       <c r="AF16" t="n">
-        <v>0.5552468604320533</v>
+        <v>0.8185980263312851</v>
       </c>
       <c r="AG16" t="n">
-        <v>0.1257538123392858</v>
+        <v>0.5682667564703305</v>
       </c>
       <c r="AH16" t="n">
-        <v>2.634970345834458</v>
+        <v>2.030770897050217</v>
       </c>
       <c r="AI16" t="n">
-        <v>5.237242733355639</v>
+        <v>3.547512912282023</v>
       </c>
       <c r="AJ16" t="n">
-        <v>3.548294410213614</v>
+        <v>2.563104479272062</v>
       </c>
       <c r="AK16" t="n">
-        <v>-0.5844286239639476</v>
+        <v>-0.3406359200216561</v>
       </c>
       <c r="AL16" t="n">
-        <v>-0.4502326860959355</v>
+        <v>-0.2624194280764239</v>
       </c>
       <c r="AM16" t="n">
-        <v>0.731183702427319</v>
+        <v>0.921143325417216</v>
       </c>
       <c r="AN16" t="n">
-        <v>-1.119676833369977</v>
+        <v>-0.6526068926518641</v>
       </c>
       <c r="AO16" t="n">
-        <v>0.6946964791840848</v>
+        <v>0.899876641430736</v>
       </c>
       <c r="AP16" t="n">
         <v>37.79806865866736</v>
       </c>
       <c r="AQ16" t="n">
-        <v>45.40556910652646</v>
+        <v>50.85024770738527</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>2833</v>
+        <v>15</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -2784,66 +2784,66 @@
         <v>49.60665700213804</v>
       </c>
       <c r="Y17" t="n">
-        <v>1.316971443839241</v>
+        <v>1.207487609457352</v>
       </c>
       <c r="Z17" t="n">
-        <v>-2.488005606747354</v>
+        <v>-1.369166472501327</v>
       </c>
       <c r="AA17" t="n">
-        <v>-0.4501887227939284</v>
+        <v>-0.2477419278622355</v>
       </c>
       <c r="AB17" t="n">
-        <v>-0.1963351376611145</v>
+        <v>-0.1080445667527901</v>
       </c>
       <c r="AC17" t="n">
-        <v>1.119662862405852</v>
+        <v>1.098907349950394</v>
       </c>
       <c r="AD17" t="n">
-        <v>1.001305108129219</v>
+        <v>1.033774269672504</v>
       </c>
       <c r="AE17" t="n">
-        <v>0.07720254445003778</v>
+        <v>0.5252343194767493</v>
       </c>
       <c r="AF17" t="n">
-        <v>0.6146752982160996</v>
+        <v>0.8210092455234409</v>
       </c>
       <c r="AG17" t="n">
-        <v>0.1227629107330176</v>
+        <v>0.5503065001102514</v>
       </c>
       <c r="AH17" t="n">
-        <v>2.741403865292682</v>
+        <v>1.991362496438655</v>
       </c>
       <c r="AI17" t="n">
-        <v>5.187534942436381</v>
+        <v>3.337485129396532</v>
       </c>
       <c r="AJ17" t="n">
-        <v>3.898724993963757</v>
+        <v>2.628244215272633</v>
       </c>
       <c r="AK17" t="n">
-        <v>-0.508332804490554</v>
+        <v>-0.2797390130044483</v>
       </c>
       <c r="AL17" t="n">
-        <v>-0.5830005782929062</v>
+        <v>-0.3208291987296104</v>
       </c>
       <c r="AM17" t="n">
-        <v>0.469355385515181</v>
+        <v>0.7410387053778207</v>
       </c>
       <c r="AN17" t="n">
-        <v>-1.069809273621402</v>
+        <v>-0.5887233475041599</v>
       </c>
       <c r="AO17" t="n">
-        <v>0.554661112096472</v>
+        <v>0.7879830291489243</v>
       </c>
       <c r="AP17" t="n">
         <v>37.79806865866736</v>
       </c>
       <c r="AQ17" t="n">
-        <v>44.29641544840263</v>
+        <v>49.60665700213804</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>2834</v>
+        <v>16</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -2921,66 +2921,66 @@
         <v>44.37219921996044</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.6740630278636571</v>
+        <v>0.7079566235165174</v>
       </c>
       <c r="Z18" t="n">
-        <v>-0.8200426730120235</v>
+        <v>-0.9163704830169908</v>
       </c>
       <c r="AA18" t="n">
-        <v>-0.2214150976940049</v>
+        <v>-0.287642397589723</v>
       </c>
       <c r="AB18" t="n">
-        <v>-0.08442312740766346</v>
+        <v>-0.1437621241972318</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.8050396465815576</v>
+        <v>0.8455190782338688</v>
       </c>
       <c r="AD18" t="n">
-        <v>0.6193175164910408</v>
+        <v>0.650458369225849</v>
       </c>
       <c r="AE18" t="n">
-        <v>0.05009973998537404</v>
+        <v>0.05261888175578008</v>
       </c>
       <c r="AF18" t="n">
-        <v>0.07140496236278181</v>
+        <v>0.07499538465548967</v>
       </c>
       <c r="AG18" t="n">
-        <v>0.07058709549810888</v>
+        <v>0.07413639337416249</v>
       </c>
       <c r="AH18" t="n">
-        <v>1.554004273718821</v>
+        <v>1.632143543073461</v>
       </c>
       <c r="AI18" t="n">
-        <v>2.819275889974026</v>
+        <v>2.961036219644511</v>
       </c>
       <c r="AJ18" t="n">
-        <v>1.95757893718485</v>
+        <v>2.056010962400332</v>
       </c>
       <c r="AK18" t="n">
-        <v>-0.3090821005435319</v>
+        <v>-0.3797175193003264</v>
       </c>
       <c r="AL18" t="n">
-        <v>-0.2575623036542735</v>
+        <v>-0.3256071765841942</v>
       </c>
       <c r="AM18" t="n">
-        <v>0.03317074424543301</v>
+        <v>0.03483865324872366</v>
       </c>
       <c r="AN18" t="n">
-        <v>-0.618932789312971</v>
+        <v>-0.7051482851898473</v>
       </c>
       <c r="AO18" t="n">
-        <v>0.2310468190118981</v>
+        <v>0.2426644380427001</v>
       </c>
       <c r="AP18" t="n">
         <v>37.79806865866736</v>
       </c>
       <c r="AQ18" t="n">
-        <v>44.70276314915231</v>
+        <v>44.37219921996044</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>2835</v>
+        <v>17</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -3058,66 +3058,66 @@
         <v>39.75194649716297</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.4182145292252228</v>
+        <v>0.8286751255185179</v>
       </c>
       <c r="Z19" t="n">
-        <v>-0.5047364227475953</v>
+        <v>-1.274065011187268</v>
       </c>
       <c r="AA19" t="n">
-        <v>-0.06164048205390003</v>
+        <v>-0.3960883781149306</v>
       </c>
       <c r="AB19" t="n">
-        <v>-0.06763895597430722</v>
+        <v>-0.4079741108706094</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.1045470064210879</v>
+        <v>0.2071556524568377</v>
       </c>
       <c r="AD19" t="n">
-        <v>0.3297913133310728</v>
+        <v>0.653468109957432</v>
       </c>
       <c r="AE19" t="n">
-        <v>0.02863566151123172</v>
+        <v>0.05674040172895691</v>
       </c>
       <c r="AF19" t="n">
-        <v>0.006810007277424067</v>
+        <v>0.01349375318417574</v>
       </c>
       <c r="AG19" t="n">
-        <v>0.05499785859893945</v>
+        <v>0.1089760259218109</v>
       </c>
       <c r="AH19" t="n">
-        <v>0.8300372084575296</v>
+        <v>1.644685059550293</v>
       </c>
       <c r="AI19" t="n">
-        <v>1.462989891673842</v>
+        <v>2.89885512672434</v>
       </c>
       <c r="AJ19" t="n">
-        <v>1.049638651675063</v>
+        <v>2.079816411537196</v>
       </c>
       <c r="AK19" t="n">
-        <v>-0.1475901694265332</v>
+        <v>-0.5663941972449911</v>
       </c>
       <c r="AL19" t="n">
-        <v>-0.1001030110416286</v>
+        <v>-0.4723003191388662</v>
       </c>
       <c r="AM19" t="n">
-        <v>0.08312892841153088</v>
+        <v>0.1647165996677923</v>
       </c>
       <c r="AN19" t="n">
-        <v>-0.4079614086757689</v>
+        <v>-1.082309246313209</v>
       </c>
       <c r="AO19" t="n">
-        <v>-1.125242768167603</v>
+        <v>-2.503573164881872</v>
       </c>
       <c r="AP19" t="n">
         <v>37.79806865866736</v>
       </c>
       <c r="AQ19" t="n">
-        <v>41.66959834000763</v>
+        <v>39.75194649716297</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>2836</v>
+        <v>18</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -3195,66 +3195,66 @@
         <v>40.38859756893343</v>
       </c>
       <c r="Y20" t="n">
-        <v>2.269118678462251</v>
+        <v>1.092603707519384</v>
       </c>
       <c r="Z20" t="n">
-        <v>-3.100554777249084</v>
+        <v>-1.259398965499688</v>
       </c>
       <c r="AA20" t="n">
-        <v>-0.2897024422399936</v>
+        <v>-0.1176727980221298</v>
       </c>
       <c r="AB20" t="n">
-        <v>-0.2740336727142992</v>
+        <v>-0.1113083782492205</v>
       </c>
       <c r="AC20" t="n">
-        <v>1.499226078306984</v>
+        <v>0.7798848511082513</v>
       </c>
       <c r="AD20" t="n">
-        <v>2.134109706763962</v>
+        <v>1.037765082981082</v>
       </c>
       <c r="AE20" t="n">
-        <v>0.1316839508400618</v>
+        <v>0.2244096976787257</v>
       </c>
       <c r="AF20" t="n">
-        <v>0.9220653290676593</v>
+        <v>0.5454507892259652</v>
       </c>
       <c r="AG20" t="n">
-        <v>0.2305545089250697</v>
+        <v>0.264569439246366</v>
       </c>
       <c r="AH20" t="n">
-        <v>3.032846252781901</v>
+        <v>1.402818422666307</v>
       </c>
       <c r="AI20" t="n">
-        <v>5.391678053811837</v>
+        <v>2.360940611573603</v>
       </c>
       <c r="AJ20" t="n">
-        <v>-0.622694187331704</v>
+        <v>-0.2529290632446118</v>
       </c>
       <c r="AK20" t="n">
-        <v>-1.094566793196414</v>
+        <v>-0.4445966564231845</v>
       </c>
       <c r="AL20" t="n">
-        <v>-0.5162168533987279</v>
+        <v>-0.2096795631266585</v>
       </c>
       <c r="AM20" t="n">
-        <v>0.2316172430263339</v>
+        <v>0.2650011059395508</v>
       </c>
       <c r="AN20" t="n">
-        <v>-2.000552534436251</v>
+        <v>-0.8125945107579016</v>
       </c>
       <c r="AO20" t="n">
-        <v>-5.35404963115352</v>
+        <v>-2.174734862349776</v>
       </c>
       <c r="AP20" t="n">
         <v>37.79806865866736</v>
       </c>
       <c r="AQ20" t="n">
-        <v>38.85030274710386</v>
+        <v>40.38859756893343</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>2837</v>
+        <v>19</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -3332,66 +3332,66 @@
         <v>48.47953104217425</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.8080378138406091</v>
+        <v>1.10866569539156</v>
       </c>
       <c r="Z21" t="n">
-        <v>1.978638063060264</v>
+        <v>2.714784019431582</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.1877934997534143</v>
+        <v>0.2576614700796698</v>
       </c>
       <c r="AB21" t="n">
-        <v>-0.2055948885288522</v>
+        <v>-1.275586778811405</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.9343819739916553</v>
+        <v>1.282015795811678</v>
       </c>
       <c r="AD21" t="n">
-        <v>1.837426174215212</v>
+        <v>2.521034699458746</v>
       </c>
       <c r="AE21" t="n">
-        <v>0.0941882978212282</v>
+        <v>0.1292307524636682</v>
       </c>
       <c r="AF21" t="n">
-        <v>0.3431059244534344</v>
+        <v>0.4707573851267379</v>
       </c>
       <c r="AG21" t="n">
-        <v>0.1208177647874819</v>
+        <v>0.1657676273553572</v>
       </c>
       <c r="AH21" t="n">
-        <v>1.140247841640498</v>
+        <v>1.564473400400109</v>
       </c>
       <c r="AI21" t="n">
-        <v>2.37046225297648</v>
+        <v>3.252385144705634</v>
       </c>
       <c r="AJ21" t="n">
-        <v>1.424733533763</v>
+        <v>1.954801083441138</v>
       </c>
       <c r="AK21" t="n">
-        <v>0.5520219771916705</v>
+        <v>0.757399986401317</v>
       </c>
       <c r="AL21" t="n">
-        <v>-0.07344662425661251</v>
+        <v>-1.094273175914759</v>
       </c>
       <c r="AM21" t="n">
-        <v>0.384265500858449</v>
+        <v>0.5272302501529392</v>
       </c>
       <c r="AN21" t="n">
-        <v>-0.5693949920799798</v>
+        <v>-1.774737546112739</v>
       </c>
       <c r="AO21" t="n">
-        <v>-0.6462217299810641</v>
+        <v>-1.880147425874347</v>
       </c>
       <c r="AP21" t="n">
         <v>37.79806865866736</v>
       </c>
       <c r="AQ21" t="n">
-        <v>52.45353492320211</v>
+        <v>48.47953104217424</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>2838</v>
+        <v>20</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -3469,66 +3469,66 @@
         <v>38.55755232744392</v>
       </c>
       <c r="Y22" t="n">
-        <v>4.878155042923536</v>
+        <v>0.9339210107418532</v>
       </c>
       <c r="Z22" t="n">
-        <v>-6.02819263507063</v>
+        <v>-1.068294137801087</v>
       </c>
       <c r="AA22" t="n">
-        <v>-0.9875562308454208</v>
+        <v>-0.1750110847525594</v>
       </c>
       <c r="AB22" t="n">
-        <v>-0.6366737241166753</v>
+        <v>-0.1128289768327654</v>
       </c>
       <c r="AC22" t="n">
-        <v>1.96717287204908</v>
+        <v>0.4180474518418518</v>
       </c>
       <c r="AD22" t="n">
-        <v>5.543805830426348</v>
+        <v>1.051885196221735</v>
       </c>
       <c r="AE22" t="n">
-        <v>0.7423688503453306</v>
+        <v>0.2009921857693898</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.719177236460493</v>
+        <v>0.3740985769903369</v>
       </c>
       <c r="AG22" t="n">
-        <v>0.3319873800367548</v>
+        <v>0.128265890255493</v>
       </c>
       <c r="AH22" t="n">
-        <v>7.710583390357892</v>
+        <v>1.435873549833247</v>
       </c>
       <c r="AI22" t="n">
-        <v>0.1620460719603468</v>
+        <v>0.09814951638049857</v>
       </c>
       <c r="AJ22" t="n">
-        <v>-4.357817707871638</v>
+        <v>-0.7722764338751917</v>
       </c>
       <c r="AK22" t="n">
-        <v>-1.768963837483264</v>
+        <v>-0.313489268171561</v>
       </c>
       <c r="AL22" t="n">
-        <v>-1.934364684246316</v>
+        <v>-0.3428009981843551</v>
       </c>
       <c r="AM22" t="n">
-        <v>0.4990990924716278</v>
+        <v>0.1578808135931219</v>
       </c>
       <c r="AN22" t="n">
-        <v>-2.889937694698844</v>
+        <v>-0.5121441341963667</v>
       </c>
       <c r="AO22" t="n">
-        <v>-4.191405583922063</v>
+        <v>-0.7427854890370835</v>
       </c>
       <c r="AP22" t="n">
         <v>37.79806865866736</v>
       </c>
       <c r="AQ22" t="n">
-        <v>37.93266156241589</v>
+        <v>38.55755232744392</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>2839</v>
+        <v>21</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -3606,66 +3606,66 @@
         <v>42.95173149782578</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.6144812939881716</v>
+        <v>0.7621566087073525</v>
       </c>
       <c r="Z23" t="n">
-        <v>-1.136304653297171</v>
+        <v>-1.586323655785247</v>
       </c>
       <c r="AA23" t="n">
-        <v>-0.1753418792560675</v>
+        <v>-0.3944173502187246</v>
       </c>
       <c r="AB23" t="n">
-        <v>-0.09191283783326741</v>
+        <v>-0.2909382111454845</v>
       </c>
       <c r="AC23" t="n">
-        <v>0.7007310978600468</v>
+        <v>0.8691344104139216</v>
       </c>
       <c r="AD23" t="n">
-        <v>0.5167261234794546</v>
+        <v>0.6409084112968598</v>
       </c>
       <c r="AE23" t="n">
-        <v>0.04541300866092439</v>
+        <v>0.05632689719090784</v>
       </c>
       <c r="AF23" t="n">
-        <v>0.2543537658439165</v>
+        <v>0.3154813750787263</v>
       </c>
       <c r="AG23" t="n">
-        <v>0.06286930577936597</v>
+        <v>0.07797838169099656</v>
       </c>
       <c r="AH23" t="n">
-        <v>1.213248256194084</v>
+        <v>1.504822336347299</v>
       </c>
       <c r="AI23" t="n">
-        <v>2.363559289668512</v>
+        <v>2.931582051913833</v>
       </c>
       <c r="AJ23" t="n">
-        <v>1.709910602130496</v>
+        <v>2.120845139571673</v>
       </c>
       <c r="AK23" t="n">
-        <v>-0.2986630597520598</v>
+        <v>-0.5473757130333003</v>
       </c>
       <c r="AL23" t="n">
-        <v>-0.1892588002467145</v>
+        <v>-0.4116788574601214</v>
       </c>
       <c r="AM23" t="n">
-        <v>0.1661777962024432</v>
+        <v>0.2061145015075979</v>
       </c>
       <c r="AN23" t="n">
-        <v>-0.5057877291011391</v>
+        <v>-0.8042776514896479</v>
       </c>
       <c r="AO23" t="n">
-        <v>-0.09653874116258063</v>
+        <v>-0.2966758354282268</v>
       </c>
       <c r="AP23" t="n">
         <v>37.79806865866736</v>
       </c>
       <c r="AQ23" t="n">
-        <v>44.19028633940557</v>
+        <v>42.95173149782578</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>2840</v>
+        <v>22</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -3743,66 +3743,66 @@
         <v>42.61383796566888</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.437274942742699</v>
+        <v>0.8449205080050299</v>
       </c>
       <c r="Z24" t="n">
-        <v>1.456200815936954</v>
+        <v>2.813730705540944</v>
       </c>
       <c r="AA24" t="n">
-        <v>-0.08636824811630012</v>
+        <v>-0.8082352405840385</v>
       </c>
       <c r="AB24" t="n">
-        <v>-0.07894553202031211</v>
+        <v>-0.7938927653091868</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.01720377381582395</v>
+        <v>0.03324183457871439</v>
       </c>
       <c r="AD24" t="n">
-        <v>0.2987918302081414</v>
+        <v>0.577337780627794</v>
       </c>
       <c r="AE24" t="n">
-        <v>0.02590534876040082</v>
+        <v>0.05005537316498978</v>
       </c>
       <c r="AF24" t="n">
-        <v>0.2893326850233577</v>
+        <v>0.55906043387499</v>
       </c>
       <c r="AG24" t="n">
-        <v>-0.009874175144508101</v>
+        <v>-0.6604302678377937</v>
       </c>
       <c r="AH24" t="n">
-        <v>0.5540059598229221</v>
+        <v>1.070472947924737</v>
       </c>
       <c r="AI24" t="n">
-        <v>1.6475996509513</v>
+        <v>3.183559353616601</v>
       </c>
       <c r="AJ24" t="n">
-        <v>1.068078896633565</v>
+        <v>2.063785677433837</v>
       </c>
       <c r="AK24" t="n">
-        <v>-0.1705879685965018</v>
+        <v>-0.9709680250556265</v>
       </c>
       <c r="AL24" t="n">
-        <v>-0.05403656034180725</v>
+        <v>-0.7457626326460191</v>
       </c>
       <c r="AM24" t="n">
-        <v>0.2328457666670665</v>
+        <v>0.4499141026128311</v>
       </c>
       <c r="AN24" t="n">
-        <v>-0.3698530664441272</v>
+        <v>-1.355996187531782</v>
       </c>
       <c r="AO24" t="n">
-        <v>-0.4418048128971572</v>
+        <v>-1.495024291414504</v>
       </c>
       <c r="AP24" t="n">
         <v>37.79806865866736</v>
       </c>
       <c r="AQ24" t="n">
-        <v>47.10329484836238</v>
+        <v>42.61383796566888</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>2841</v>
+        <v>23</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -3880,66 +3880,66 @@
         <v>42.14976134664804</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.972441652883002</v>
+        <v>0.856486535309247</v>
       </c>
       <c r="Z25" t="n">
-        <v>-1.835293377822172</v>
+        <v>-1.400024717119636</v>
       </c>
       <c r="AA25" t="n">
-        <v>-0.2218430914502435</v>
+        <v>-0.169229516711451</v>
       </c>
       <c r="AB25" t="n">
-        <v>-0.177657191652673</v>
+        <v>-0.1355229973002726</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.5658581517095466</v>
+        <v>0.5463306996840218</v>
       </c>
       <c r="AD25" t="n">
-        <v>1.148568512227307</v>
+        <v>0.9908421426526814</v>
       </c>
       <c r="AE25" t="n">
-        <v>0.05892757217403539</v>
+        <v>0.1596266719848254</v>
       </c>
       <c r="AF25" t="n">
-        <v>0.4856860333249188</v>
+        <v>0.4851726588396135</v>
       </c>
       <c r="AG25" t="n">
-        <v>0.06745991169923313</v>
+        <v>0.1661354331313995</v>
       </c>
       <c r="AH25" t="n">
-        <v>-0.7016900142379348</v>
+        <v>-0.5352732023993192</v>
       </c>
       <c r="AI25" t="n">
-        <v>3.362672009232629</v>
+        <v>2.679836207321955</v>
       </c>
       <c r="AJ25" t="n">
-        <v>2.533914737602527</v>
+        <v>2.047631744103324</v>
       </c>
       <c r="AK25" t="n">
-        <v>-0.4586542326695965</v>
+        <v>-0.3498771750110861</v>
       </c>
       <c r="AL25" t="n">
-        <v>-0.3076239794131236</v>
+        <v>-0.2346661193035728</v>
       </c>
       <c r="AM25" t="n">
-        <v>0.6002637103138355</v>
+        <v>0.5725764394847459</v>
       </c>
       <c r="AN25" t="n">
-        <v>-0.8348440800387553</v>
+        <v>-0.6368476893771641</v>
       </c>
       <c r="AO25" t="n">
-        <v>-0.9064936359018563</v>
+        <v>-0.6915044273086323</v>
       </c>
       <c r="AP25" t="n">
         <v>37.79806865866736</v>
       </c>
       <c r="AQ25" t="n">
-        <v>41.11768905184466</v>
+        <v>42.14976134664804</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>4251</v>
+        <v>24</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -4017,66 +4017,66 @@
         <v>28.85662081741394</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.59295864982173</v>
+        <v>0.6742461527763067</v>
       </c>
       <c r="Z26" t="n">
-        <v>1.73396013195696</v>
+        <v>1.971665222171844</v>
       </c>
       <c r="AA26" t="n">
-        <v>0.3889264216108255</v>
+        <v>0.4422435587422389</v>
       </c>
       <c r="AB26" t="n">
-        <v>-0.3757348976645985</v>
+        <v>-0.6042692314888283</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.5862498740412678</v>
+        <v>0.6666176844823112</v>
       </c>
       <c r="AD26" t="n">
-        <v>1.273799551864131</v>
+        <v>1.44842215812314</v>
       </c>
       <c r="AE26" t="n">
-        <v>0.1543033675647762</v>
+        <v>0.1754565043823162</v>
       </c>
       <c r="AF26" t="n">
-        <v>0.3605619920558819</v>
+        <v>0.409990706863166</v>
       </c>
       <c r="AG26" t="n">
-        <v>-0.1851357924079363</v>
+        <v>-0.3875412800869103</v>
       </c>
       <c r="AH26" t="n">
-        <v>1.134128309533874</v>
+        <v>1.289603667452711</v>
       </c>
       <c r="AI26" t="n">
-        <v>2.048825531244662</v>
+        <v>2.329694882715516</v>
       </c>
       <c r="AJ26" t="n">
-        <v>0.6949428715819436</v>
+        <v>0.7902111853909465</v>
       </c>
       <c r="AK26" t="n">
-        <v>-0.3860434760650127</v>
+        <v>-0.6159909920688651</v>
       </c>
       <c r="AL26" t="n">
-        <v>-0.04837762157375711</v>
+        <v>-0.2320352079967362</v>
       </c>
       <c r="AM26" t="n">
-        <v>-0.1983142478033482</v>
+        <v>-0.4025263432992642</v>
       </c>
       <c r="AN26" t="n">
-        <v>0.5480065000417464</v>
+        <v>0.6231316036297677</v>
       </c>
       <c r="AO26" t="n">
-        <v>-0.5750869659854755</v>
+        <v>-0.8309500719719903</v>
       </c>
       <c r="AP26" t="n">
         <v>21.10865061759627</v>
       </c>
       <c r="AQ26" t="n">
-        <v>29.91877439371981</v>
+        <v>28.85662081741394</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>4252</v>
+        <v>25</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -4154,66 +4154,66 @@
         <v>30.75743917756592</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.8647687780869341</v>
+        <v>0.8570924863434656</v>
       </c>
       <c r="Z27" t="n">
-        <v>2.240023163043415</v>
+        <v>2.058437136712043</v>
       </c>
       <c r="AA27" t="n">
-        <v>0.457446991777383</v>
+        <v>0.5012791515057533</v>
       </c>
       <c r="AB27" t="n">
-        <v>-0.2988954014084813</v>
+        <v>-0.2610981614962896</v>
       </c>
       <c r="AC27" t="n">
-        <v>0.7366770112197557</v>
+        <v>0.7451987446725286</v>
       </c>
       <c r="AD27" t="n">
-        <v>1.104476276652439</v>
+        <v>1.066487434801685</v>
       </c>
       <c r="AE27" t="n">
-        <v>0.1463276620948244</v>
+        <v>0.2295028558408411</v>
       </c>
       <c r="AF27" t="n">
-        <v>0.5034252352869126</v>
+        <v>0.5414431513284226</v>
       </c>
       <c r="AG27" t="n">
-        <v>-0.2025003399024988</v>
+        <v>-0.1768928735663576</v>
       </c>
       <c r="AH27" t="n">
-        <v>0.783042579927863</v>
+        <v>0.7857010899390329</v>
       </c>
       <c r="AI27" t="n">
-        <v>1.565858405476554</v>
+        <v>1.469524835228557</v>
       </c>
       <c r="AJ27" t="n">
-        <v>1.448770469289453</v>
+        <v>1.367243419295808</v>
       </c>
       <c r="AK27" t="n">
-        <v>0.09602365341922404</v>
+        <v>0.1855601115925183</v>
       </c>
       <c r="AL27" t="n">
-        <v>-0.0711804480397622</v>
+        <v>-0.06217922400306532</v>
       </c>
       <c r="AM27" t="n">
-        <v>-0.1053619315262535</v>
+        <v>-0.09203823974396595</v>
       </c>
       <c r="AN27" t="n">
-        <v>0.7254956839182336</v>
+        <v>0.735431367898719</v>
       </c>
       <c r="AO27" t="n">
-        <v>-0.3456092293463486</v>
+        <v>-0.3019047263800445</v>
       </c>
       <c r="AP27" t="n">
         <v>21.10865061759627</v>
       </c>
       <c r="AQ27" t="n">
-        <v>29.53728799978057</v>
+        <v>30.75743917756592</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>4253</v>
+        <v>26</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -4291,66 +4291,66 @@
         <v>33.14171684240821</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.8487604590846379</v>
+        <v>0.8831322156749419</v>
       </c>
       <c r="Z28" t="n">
-        <v>2.571974490073512</v>
+        <v>2.221724211639557</v>
       </c>
       <c r="AA28" t="n">
-        <v>0.5334590587265765</v>
+        <v>0.6382062092440782</v>
       </c>
       <c r="AB28" t="n">
-        <v>-0.4201609916169799</v>
+        <v>-0.3263808965577511</v>
       </c>
       <c r="AC28" t="n">
-        <v>0.9367120222162187</v>
+        <v>0.95145295606083</v>
       </c>
       <c r="AD28" t="n">
-        <v>1.251015705184112</v>
+        <v>1.195603936007058</v>
       </c>
       <c r="AE28" t="n">
-        <v>0.1634329567917387</v>
+        <v>0.3507700756932607</v>
       </c>
       <c r="AF28" t="n">
-        <v>0.5531265818459323</v>
+        <v>0.6534839336326795</v>
       </c>
       <c r="AG28" t="n">
-        <v>-0.3030565491242341</v>
+        <v>-0.2354142107057716</v>
       </c>
       <c r="AH28" t="n">
-        <v>1.048318190217261</v>
+        <v>1.038148584404076</v>
       </c>
       <c r="AI28" t="n">
-        <v>2.715204273294487</v>
+        <v>2.332985052112938</v>
       </c>
       <c r="AJ28" t="n">
-        <v>1.60704905206965</v>
+        <v>1.472170502821735</v>
       </c>
       <c r="AK28" t="n">
-        <v>0.3369932105706669</v>
+        <v>0.4855916140211137</v>
       </c>
       <c r="AL28" t="n">
-        <v>-0.06403468137153402</v>
+        <v>-0.04974211584088089</v>
       </c>
       <c r="AM28" t="n">
-        <v>-0.08143164383416371</v>
+        <v>-0.0632560695853321</v>
       </c>
       <c r="AN28" t="n">
-        <v>0.6817302731280166</v>
+        <v>0.7533832315178729</v>
       </c>
       <c r="AO28" t="n">
-        <v>-0.3460261824439666</v>
+        <v>-0.2687930053284692</v>
       </c>
       <c r="AP28" t="n">
         <v>21.10865061759627</v>
       </c>
       <c r="AQ28" t="n">
-        <v>30.45593182920648</v>
+        <v>33.14171684240821</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>4254</v>
+        <v>27</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -4428,66 +4428,66 @@
         <v>33.82570623832375</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.8207366923389992</v>
+        <v>0.8894021804916341</v>
       </c>
       <c r="Z29" t="n">
-        <v>2.816896920772111</v>
+        <v>2.312102044587693</v>
       </c>
       <c r="AA29" t="n">
-        <v>0.6748371628648043</v>
+        <v>0.7854169202915804</v>
       </c>
       <c r="AB29" t="n">
-        <v>-0.4826533528967536</v>
+        <v>-0.3439958625519363</v>
       </c>
       <c r="AC29" t="n">
-        <v>0.990315246301126</v>
+        <v>1.010263914053424</v>
       </c>
       <c r="AD29" t="n">
-        <v>1.412235082359283</v>
+        <v>1.310973889570043</v>
       </c>
       <c r="AE29" t="n">
-        <v>0.1747434817410436</v>
+        <v>0.4289910171823135</v>
       </c>
       <c r="AF29" t="n">
-        <v>0.5722308098861234</v>
+        <v>0.712287497934164</v>
       </c>
       <c r="AG29" t="n">
-        <v>-0.4151040332404768</v>
+        <v>-0.2958522283256387</v>
       </c>
       <c r="AH29" t="n">
-        <v>1.884538628392254</v>
+        <v>1.647593255682071</v>
       </c>
       <c r="AI29" t="n">
-        <v>3.17322993932143</v>
+        <v>2.566067097012863</v>
       </c>
       <c r="AJ29" t="n">
-        <v>1.764040541856523</v>
+        <v>1.561712067941553</v>
       </c>
       <c r="AK29" t="n">
-        <v>0.3403176063222146</v>
+        <v>0.5469987207644857</v>
       </c>
       <c r="AL29" t="n">
-        <v>-0.08954733496493988</v>
+        <v>-0.06382202163439865</v>
       </c>
       <c r="AM29" t="n">
-        <v>-0.5129592588923746</v>
+        <v>-0.3655954354354828</v>
       </c>
       <c r="AN29" t="n">
-        <v>0.3330454857834961</v>
+        <v>0.541815747596923</v>
       </c>
       <c r="AO29" t="n">
-        <v>-0.7398479972173855</v>
+        <v>-0.5273031844338171</v>
       </c>
       <c r="AP29" t="n">
         <v>21.10865061759627</v>
       </c>
       <c r="AQ29" t="n">
-        <v>30.17232849555538</v>
+        <v>33.82570623832375</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>4255</v>
+        <v>28</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -4565,66 +4565,66 @@
         <v>30.84791114684348</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.6436048609151849</v>
+        <v>0.6676241171278154</v>
       </c>
       <c r="Z30" t="n">
-        <v>1.925431275957534</v>
+        <v>1.997288140231793</v>
       </c>
       <c r="AA30" t="n">
-        <v>0.4016799997710095</v>
+        <v>0.4166706491832437</v>
       </c>
       <c r="AB30" t="n">
-        <v>-0.267376137339034</v>
+        <v>-0.3500481896708627</v>
       </c>
       <c r="AC30" t="n">
-        <v>0.6914062533714592</v>
+        <v>0.7172094518170541</v>
       </c>
       <c r="AD30" t="n">
-        <v>0.9287256674358568</v>
+        <v>0.9633855979492278</v>
       </c>
       <c r="AE30" t="n">
-        <v>0.1253206164494469</v>
+        <v>0.1299975668238487</v>
       </c>
       <c r="AF30" t="n">
-        <v>0.4115966502285253</v>
+        <v>0.4269573878463884</v>
       </c>
       <c r="AG30" t="n">
-        <v>-0.1512824759563357</v>
+        <v>-0.2296219267701332</v>
       </c>
       <c r="AH30" t="n">
-        <v>1.901886911922024</v>
+        <v>1.972865103354491</v>
       </c>
       <c r="AI30" t="n">
-        <v>1.310304083560889</v>
+        <v>1.359204474795896</v>
       </c>
       <c r="AJ30" t="n">
-        <v>1.373860405524911</v>
+        <v>1.425132711072398</v>
       </c>
       <c r="AK30" t="n">
-        <v>0.2528925422582273</v>
+        <v>0.2623304616022894</v>
       </c>
       <c r="AL30" t="n">
-        <v>-0.08082807112384334</v>
+        <v>-0.1565381719998953</v>
       </c>
       <c r="AM30" t="n">
-        <v>-0.127249755305542</v>
+        <v>-0.2046923078672393</v>
       </c>
       <c r="AN30" t="n">
-        <v>0.6132084694756935</v>
+        <v>0.6360933360056756</v>
       </c>
       <c r="AO30" t="n">
-        <v>-0.2139207678987945</v>
+        <v>-0.2945978722547794</v>
       </c>
       <c r="AP30" t="n">
         <v>21.10865061759627</v>
       </c>
       <c r="AQ30" t="n">
-        <v>31.21137918162636</v>
+        <v>30.84791114684348</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>4256</v>
+        <v>29</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -4702,66 +4702,66 @@
         <v>26.38423078620406</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.5612768375978215</v>
+        <v>0.5780436619248983</v>
       </c>
       <c r="Z31" t="n">
-        <v>-0.1012754254652406</v>
+        <v>-0.1268144388771508</v>
       </c>
       <c r="AA31" t="n">
-        <v>0.4513366268782878</v>
+        <v>0.4648192461996752</v>
       </c>
       <c r="AB31" t="n">
-        <v>-0.2562590039847977</v>
+        <v>-0.286427786987309</v>
       </c>
       <c r="AC31" t="n">
-        <v>-1.214612992919786</v>
+        <v>-1.273410345460989</v>
       </c>
       <c r="AD31" t="n">
-        <v>0.7910367481984694</v>
+        <v>0.814667109020181</v>
       </c>
       <c r="AE31" t="n">
-        <v>0.145259761190446</v>
+        <v>0.149599054627348</v>
       </c>
       <c r="AF31" t="n">
-        <v>0.3518727503652416</v>
+        <v>0.3623841205049921</v>
       </c>
       <c r="AG31" t="n">
-        <v>-0.2265331146623669</v>
+        <v>-0.2558139066934915</v>
       </c>
       <c r="AH31" t="n">
-        <v>1.996244368390444</v>
+        <v>2.05587746991298</v>
       </c>
       <c r="AI31" t="n">
-        <v>2.215821495111534</v>
+        <v>2.282013946429678</v>
       </c>
       <c r="AJ31" t="n">
-        <v>0.8359809069749667</v>
+        <v>0.8609538687455416</v>
       </c>
       <c r="AK31" t="n">
-        <v>0.1073267233675658</v>
+        <v>0.1105328565905337</v>
       </c>
       <c r="AL31" t="n">
-        <v>-0.0317110537537778</v>
+        <v>-0.05517199530920187</v>
       </c>
       <c r="AM31" t="n">
-        <v>-0.05272132767072188</v>
+        <v>-0.07680990170308345</v>
       </c>
       <c r="AN31" t="n">
-        <v>0.2145091735245938</v>
+        <v>0.2209171301479712</v>
       </c>
       <c r="AO31" t="n">
-        <v>-0.5119723045348904</v>
+        <v>-0.549779920464786</v>
       </c>
       <c r="AP31" t="n">
         <v>21.10865061759627</v>
       </c>
       <c r="AQ31" t="n">
-        <v>26.54182632549093</v>
+        <v>26.38423078620406</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>4257</v>
+        <v>30</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -4839,66 +4839,66 @@
         <v>29.64627198499391</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.9512993628732056</v>
+        <v>0.9232849118603775</v>
       </c>
       <c r="Z32" t="n">
-        <v>0.01904361365338059</v>
+        <v>0.09992518613147772</v>
       </c>
       <c r="AA32" t="n">
-        <v>0.4897775137692774</v>
+        <v>0.5156730484697644</v>
       </c>
       <c r="AB32" t="n">
-        <v>-0.5395778814978864</v>
+        <v>-0.4765502351594754</v>
       </c>
       <c r="AC32" t="n">
-        <v>0.9548126926488137</v>
+        <v>0.9263878524889129</v>
       </c>
       <c r="AD32" t="n">
-        <v>1.150842605119347</v>
+        <v>1.099519672916378</v>
       </c>
       <c r="AE32" t="n">
-        <v>0.1454748683993602</v>
+        <v>0.2115881105149712</v>
       </c>
       <c r="AF32" t="n">
-        <v>0.4929877648941341</v>
+        <v>0.5185083128142266</v>
       </c>
       <c r="AG32" t="n">
-        <v>-0.285336140688632</v>
+        <v>-0.252006261945334</v>
       </c>
       <c r="AH32" t="n">
-        <v>0.9325778372047135</v>
+        <v>0.9067502321305543</v>
       </c>
       <c r="AI32" t="n">
-        <v>2.934050721005387</v>
+        <v>2.674432722733647</v>
       </c>
       <c r="AJ32" t="n">
-        <v>1.438298683327661</v>
+        <v>1.353398244231998</v>
       </c>
       <c r="AK32" t="n">
-        <v>0.2937948007100044</v>
+        <v>0.3425829141293441</v>
       </c>
       <c r="AL32" t="n">
-        <v>-0.03053246979368752</v>
+        <v>-0.0269659972343369</v>
       </c>
       <c r="AM32" t="n">
-        <v>-0.06855546029042377</v>
+        <v>-0.06054755363984559</v>
       </c>
       <c r="AN32" t="n">
-        <v>0.1440985666672417</v>
+        <v>0.2103725734505706</v>
       </c>
       <c r="AO32" t="n">
-        <v>-0.4854357106042583</v>
+        <v>-0.4287323664955909</v>
       </c>
       <c r="AP32" t="n">
         <v>21.10865061759627</v>
       </c>
       <c r="AQ32" t="n">
-        <v>28.64899949001728</v>
+        <v>29.64627198499391</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>4258</v>
+        <v>31</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -4976,66 +4976,66 @@
         <v>29.46595082886267</v>
       </c>
       <c r="Y33" t="n">
-        <v>0.5724146839115113</v>
+        <v>0.5931775026986831</v>
       </c>
       <c r="Z33" t="n">
-        <v>1.87600021442062</v>
+        <v>1.944047127945871</v>
       </c>
       <c r="AA33" t="n">
-        <v>0.3958406882590906</v>
+        <v>0.4101987554259758</v>
       </c>
       <c r="AB33" t="n">
-        <v>-0.3168503730115923</v>
+        <v>-0.3889710400823425</v>
       </c>
       <c r="AC33" t="n">
-        <v>0.7388295567277028</v>
+        <v>0.7656286319997047</v>
       </c>
       <c r="AD33" t="n">
-        <v>0.9444455778935753</v>
+        <v>0.9787028269462243</v>
       </c>
       <c r="AE33" t="n">
-        <v>0.1226620595446044</v>
+        <v>0.1271112992059328</v>
       </c>
       <c r="AF33" t="n">
-        <v>0.4097775440838999</v>
+        <v>0.4246411335933919</v>
       </c>
       <c r="AG33" t="n">
-        <v>-0.2348666646666624</v>
+        <v>-0.3040135909727028</v>
       </c>
       <c r="AH33" t="n">
-        <v>0.6837682365928293</v>
+        <v>0.7085701090601603</v>
       </c>
       <c r="AI33" t="n">
-        <v>1.92621613462339</v>
+        <v>1.996084496970109</v>
       </c>
       <c r="AJ33" t="n">
-        <v>1.235316219844094</v>
+        <v>1.280124027083088</v>
       </c>
       <c r="AK33" t="n">
-        <v>0.2098900142171417</v>
+        <v>0.217503215717579</v>
       </c>
       <c r="AL33" t="n">
-        <v>-0.0303467095451401</v>
+        <v>-0.09207521894836551</v>
       </c>
       <c r="AM33" t="n">
-        <v>-0.03725882682063764</v>
+        <v>-0.09923805487672174</v>
       </c>
       <c r="AN33" t="n">
-        <v>0.1299186523244908</v>
+        <v>0.1346311055705434</v>
       </c>
       <c r="AO33" t="n">
-        <v>-0.2684567971325186</v>
+        <v>-0.3388221160707325</v>
       </c>
       <c r="AP33" t="n">
         <v>21.10865061759627</v>
       </c>
       <c r="AQ33" t="n">
-        <v>29.76908964537727</v>
+        <v>29.46595082886267</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>4259</v>
+        <v>32</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -5113,66 +5113,66 @@
         <v>30.14107991260625</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.6982989925090655</v>
+        <v>0.7058041138431759</v>
       </c>
       <c r="Z34" t="n">
-        <v>2.07034055463157</v>
+        <v>2.092591993101514</v>
       </c>
       <c r="AA34" t="n">
-        <v>0.4090757849296731</v>
+        <v>0.4134724165068034</v>
       </c>
       <c r="AB34" t="n">
-        <v>-0.3345280055698739</v>
+        <v>-0.3575390209143022</v>
       </c>
       <c r="AC34" t="n">
-        <v>0.2246592752715455</v>
+        <v>0.227073850027966</v>
       </c>
       <c r="AD34" t="n">
-        <v>0.9706988469690229</v>
+        <v>0.981131645388518</v>
       </c>
       <c r="AE34" t="n">
-        <v>0.1254150004840599</v>
+        <v>0.1267629256648888</v>
       </c>
       <c r="AF34" t="n">
-        <v>0.3982035716401804</v>
+        <v>0.4024833517242064</v>
       </c>
       <c r="AG34" t="n">
-        <v>-0.2636014695631722</v>
+        <v>-0.2858501864305172</v>
       </c>
       <c r="AH34" t="n">
-        <v>1.275924253875724</v>
+        <v>1.2896375291936</v>
       </c>
       <c r="AI34" t="n">
-        <v>2.121893875218968</v>
+        <v>2.144699394290969</v>
       </c>
       <c r="AJ34" t="n">
-        <v>1.260815433116155</v>
+        <v>1.274366323074418</v>
       </c>
       <c r="AK34" t="n">
-        <v>0.2142407492904529</v>
+        <v>0.2165433486574636</v>
       </c>
       <c r="AL34" t="n">
-        <v>-0.03433033267843601</v>
+        <v>-0.05411490779677651</v>
       </c>
       <c r="AM34" t="n">
-        <v>-0.1148868361774233</v>
+        <v>-0.1355372099572215</v>
       </c>
       <c r="AN34" t="n">
-        <v>0.2400346495336282</v>
+        <v>0.2426144744917992</v>
       </c>
       <c r="AO34" t="n">
-        <v>-0.2298250484711597</v>
+        <v>-0.251710745856525</v>
       </c>
       <c r="AP34" t="n">
         <v>21.10865061759627</v>
       </c>
       <c r="AQ34" t="n">
-        <v>30.23815792435771</v>
+        <v>30.14107991260625</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>4260</v>
+        <v>33</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -5250,66 +5250,66 @@
         <v>32.46667847334119</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.6018984336686496</v>
+        <v>0.6384503004157956</v>
       </c>
       <c r="Z35" t="n">
-        <v>2.295253864725044</v>
+        <v>2.152192835939291</v>
       </c>
       <c r="AA35" t="n">
-        <v>0.551508618358561</v>
+        <v>0.5934052936835298</v>
       </c>
       <c r="AB35" t="n">
-        <v>-0.3353883717395922</v>
+        <v>-0.2998139876077081</v>
       </c>
       <c r="AC35" t="n">
-        <v>0.8104158975311934</v>
+        <v>0.8248504788185682</v>
       </c>
       <c r="AD35" t="n">
-        <v>1.177961654529713</v>
+        <v>1.153410942803824</v>
       </c>
       <c r="AE35" t="n">
-        <v>0.1408036864594038</v>
+        <v>0.2262635149624563</v>
       </c>
       <c r="AF35" t="n">
-        <v>0.4609909222541224</v>
+        <v>0.512488739309946</v>
       </c>
       <c r="AG35" t="n">
-        <v>-0.250591959401947</v>
+        <v>-0.2240118648748533</v>
       </c>
       <c r="AH35" t="n">
-        <v>1.969165597720058</v>
+        <v>1.860692498179338</v>
       </c>
       <c r="AI35" t="n">
-        <v>2.522057709468958</v>
+        <v>2.354939773004328</v>
       </c>
       <c r="AJ35" t="n">
-        <v>1.358594189216677</v>
+        <v>1.314883924813574</v>
       </c>
       <c r="AK35" t="n">
-        <v>0.3191283549704218</v>
+        <v>0.3856734243692815</v>
       </c>
       <c r="AL35" t="n">
-        <v>-0.05697975100601209</v>
+        <v>-0.05093595306658669</v>
       </c>
       <c r="AM35" t="n">
-        <v>-0.07111421248094778</v>
+        <v>-0.06357118318952699</v>
       </c>
       <c r="AN35" t="n">
-        <v>0.5686827304833126</v>
+        <v>0.6087577610724159</v>
       </c>
       <c r="AO35" t="n">
-        <v>-0.7043595090126961</v>
+        <v>-0.6296486428887559</v>
       </c>
       <c r="AP35" t="n">
         <v>21.10865061759627</v>
       </c>
       <c r="AQ35" t="n">
-        <v>31.26194127918876</v>
+        <v>32.46667847334119</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>4261</v>
+        <v>34</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -5387,66 +5387,66 @@
         <v>36.94236723024098</v>
       </c>
       <c r="Y36" t="n">
-        <v>2.969982974394807</v>
+        <v>2.95861627566347</v>
       </c>
       <c r="Z36" t="n">
-        <v>2.497059532482766</v>
+        <v>2.48876107783886</v>
       </c>
       <c r="AA36" t="n">
-        <v>0.4476252514633774</v>
+        <v>0.4526231658678944</v>
       </c>
       <c r="AB36" t="n">
-        <v>-0.319452124817678</v>
+        <v>-0.3173795756346097</v>
       </c>
       <c r="AC36" t="n">
-        <v>0.9898205636687116</v>
+        <v>0.9913008102786695</v>
       </c>
       <c r="AD36" t="n">
-        <v>1.310089940287748</v>
+        <v>1.309492335528734</v>
       </c>
       <c r="AE36" t="n">
-        <v>0.142267821941296</v>
+        <v>0.149246841625551</v>
       </c>
       <c r="AF36" t="n">
-        <v>0.3943532546674472</v>
+        <v>0.3996967884147775</v>
       </c>
       <c r="AG36" t="n">
-        <v>-0.2401365127924179</v>
+        <v>-0.2385785493457924</v>
       </c>
       <c r="AH36" t="n">
-        <v>2.697626200251424</v>
+        <v>2.688026504353693</v>
       </c>
       <c r="AI36" t="n">
-        <v>2.929107980168927</v>
+        <v>2.918006471208794</v>
       </c>
       <c r="AJ36" t="n">
-        <v>1.459878780198607</v>
+        <v>1.458309371799322</v>
       </c>
       <c r="AK36" t="n">
-        <v>0.2971914758004013</v>
+        <v>0.303165378074882</v>
       </c>
       <c r="AL36" t="n">
-        <v>-0.1214762609801962</v>
+        <v>-0.1206881443708595</v>
       </c>
       <c r="AM36" t="n">
-        <v>0.5448967756785097</v>
+        <v>0.549263609547366</v>
       </c>
       <c r="AN36" t="n">
-        <v>0.4748015657784392</v>
+        <v>0.4796231650369397</v>
       </c>
       <c r="AO36" t="n">
-        <v>-0.6399206055474683</v>
+        <v>-0.6357689132429863</v>
       </c>
       <c r="AP36" t="n">
         <v>21.10865061759627</v>
       </c>
       <c r="AQ36" t="n">
-        <v>36.83964086256005</v>
+        <v>36.94236723024098</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>4262</v>
+        <v>35</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -5524,66 +5524,66 @@
         <v>28.64078626247563</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.892196570010103</v>
+        <v>0.8734583122441829</v>
       </c>
       <c r="Z37" t="n">
-        <v>2.09104352426781</v>
+        <v>1.987380035215913</v>
       </c>
       <c r="AA37" t="n">
-        <v>0.4632624984270218</v>
+        <v>0.4749095413921562</v>
       </c>
       <c r="AB37" t="n">
-        <v>-0.3666424057825422</v>
+        <v>-0.3406697901790694</v>
       </c>
       <c r="AC37" t="n">
-        <v>0.1629379348938757</v>
+        <v>0.195859697645661</v>
       </c>
       <c r="AD37" t="n">
-        <v>0.8846929504521122</v>
+        <v>0.8664862422924042</v>
       </c>
       <c r="AE37" t="n">
-        <v>0.1591854372113666</v>
+        <v>0.1923730234967192</v>
       </c>
       <c r="AF37" t="n">
-        <v>0.407634171750752</v>
+        <v>0.4232218749413271</v>
       </c>
       <c r="AG37" t="n">
-        <v>-0.2349374530581006</v>
+        <v>-0.2182946968932393</v>
       </c>
       <c r="AH37" t="n">
-        <v>1.355840150840871</v>
+        <v>1.304257802178718</v>
       </c>
       <c r="AI37" t="n">
-        <v>1.549202615429624</v>
+        <v>1.483922645091154</v>
       </c>
       <c r="AJ37" t="n">
-        <v>0.6299739602306752</v>
+        <v>0.6298113143932343</v>
       </c>
       <c r="AK37" t="n">
-        <v>0.071795382696218</v>
+        <v>0.1111736012098423</v>
       </c>
       <c r="AL37" t="n">
-        <v>-0.02835126319820269</v>
+        <v>-0.02634288541836524</v>
       </c>
       <c r="AM37" t="n">
-        <v>-0.02335107577690509</v>
+        <v>-0.021696906740493</v>
       </c>
       <c r="AN37" t="n">
-        <v>0.1954198024695885</v>
+        <v>0.2260405791725116</v>
       </c>
       <c r="AO37" t="n">
-        <v>-0.6777671559849131</v>
+        <v>-0.6297547451633023</v>
       </c>
       <c r="AP37" t="n">
         <v>21.10865061759627</v>
       </c>
       <c r="AQ37" t="n">
-        <v>28.10721660252283</v>
+        <v>28.64078626247563</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>5672</v>
+        <v>36</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -5661,66 +5661,66 @@
         <v>36.40829732738487</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.345927909008967</v>
+        <v>0.3785628017648944</v>
       </c>
       <c r="Z38" t="n">
-        <v>1.509161646021274</v>
+        <v>1.354271552275888</v>
       </c>
       <c r="AA38" t="n">
-        <v>0.02081235805660885</v>
+        <v>0.1058591499552646</v>
       </c>
       <c r="AB38" t="n">
-        <v>-0.01400318108608956</v>
+        <v>-0.01174572735122027</v>
       </c>
       <c r="AC38" t="n">
-        <v>0.520916002390667</v>
+        <v>0.5253410532161358</v>
       </c>
       <c r="AD38" t="n">
-        <v>0.4682957627409975</v>
+        <v>0.4812037258273715</v>
       </c>
       <c r="AE38" t="n">
-        <v>0.4326722833297588</v>
+        <v>0.4513231098520577</v>
       </c>
       <c r="AF38" t="n">
-        <v>0.3495301027348024</v>
+        <v>0.381584285605589</v>
       </c>
       <c r="AG38" t="n">
-        <v>0.07053810986927149</v>
+        <v>0.1475686100797344</v>
       </c>
       <c r="AH38" t="n">
-        <v>0.4151352338258761</v>
+        <v>0.4366132092408258</v>
       </c>
       <c r="AI38" t="n">
-        <v>1.019095338552307</v>
+        <v>0.9432088661503885</v>
       </c>
       <c r="AJ38" t="n">
-        <v>1.782314024355736</v>
+        <v>1.583389017909542</v>
       </c>
       <c r="AK38" t="n">
-        <v>0.2615327312275311</v>
+        <v>0.3077729760899821</v>
       </c>
       <c r="AL38" t="n">
-        <v>0.1154583639080404</v>
+        <v>0.1852472670394061</v>
       </c>
       <c r="AM38" t="n">
-        <v>-0.00251151608020766</v>
+        <v>-0.002106634409350662</v>
       </c>
       <c r="AN38" t="n">
-        <v>0.08114042420840667</v>
+        <v>0.156461724633764</v>
       </c>
       <c r="AO38" t="n">
-        <v>0.8494590471451675</v>
+        <v>0.8009196523288433</v>
       </c>
       <c r="AP38" t="n">
         <v>28.18282268717576</v>
       </c>
       <c r="AQ38" t="n">
-        <v>35.08226802493885</v>
+        <v>36.40829732738487</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>5673</v>
+        <v>37</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -5798,66 +5798,66 @@
         <v>36.87305973110761</v>
       </c>
       <c r="Y39" t="n">
-        <v>0.3660528874776365</v>
+        <v>0.421674980609544</v>
       </c>
       <c r="Z39" t="n">
-        <v>1.598008857393798</v>
+        <v>1.384570093610249</v>
       </c>
       <c r="AA39" t="n">
-        <v>0.02233524410407909</v>
+        <v>0.1530257373423186</v>
       </c>
       <c r="AB39" t="n">
-        <v>-0.01106824178686401</v>
+        <v>-0.008650922749135932</v>
       </c>
       <c r="AC39" t="n">
-        <v>0.5467333596391334</v>
+        <v>0.5628945922737538</v>
       </c>
       <c r="AD39" t="n">
-        <v>0.5016584654507943</v>
+        <v>0.5276641161911311</v>
       </c>
       <c r="AE39" t="n">
-        <v>0.4643318666224241</v>
+        <v>0.4984896972391117</v>
       </c>
       <c r="AF39" t="n">
-        <v>0.3751059896755253</v>
+        <v>0.428750872992643</v>
       </c>
       <c r="AG39" t="n">
-        <v>0.07701467868171111</v>
+        <v>0.1957631091495486</v>
       </c>
       <c r="AH39" t="n">
-        <v>0.4455115926069019</v>
+        <v>0.4837797966278798</v>
       </c>
       <c r="AI39" t="n">
-        <v>1.093652891786728</v>
+        <v>0.9903661558438296</v>
       </c>
       <c r="AJ39" t="n">
-        <v>1.912729864431098</v>
+        <v>1.630555605296596</v>
       </c>
       <c r="AK39" t="n">
-        <v>0.2754686548140265</v>
+        <v>0.3508744673796397</v>
       </c>
       <c r="AL39" t="n">
-        <v>0.1239067065216474</v>
+        <v>0.2324138544264601</v>
       </c>
       <c r="AM39" t="n">
-        <v>-0.002695289239699834</v>
+        <v>-0.002106634409350662</v>
       </c>
       <c r="AN39" t="n">
-        <v>-0.01012631955033576</v>
+        <v>-0.007914717608264328</v>
       </c>
       <c r="AO39" t="n">
-        <v>0.9116158353032474</v>
+        <v>0.8480862397158974</v>
       </c>
       <c r="AP39" t="n">
         <v>28.18282268717576</v>
       </c>
       <c r="AQ39" t="n">
-        <v>34.97510015873923</v>
+        <v>36.87305973110761</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>5674</v>
+        <v>38</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -5935,66 +5935,66 @@
         <v>37.83813473624378</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.5729764746418463</v>
+        <v>0.5867603809034836</v>
       </c>
       <c r="Z40" t="n">
-        <v>1.64225768504646</v>
+        <v>1.447603399908794</v>
       </c>
       <c r="AA40" t="n">
-        <v>0.6688998897741311</v>
+        <v>0.6639851572039384</v>
       </c>
       <c r="AB40" t="n">
-        <v>-0.01311661463263601</v>
+        <v>-0.01055975362665822</v>
       </c>
       <c r="AC40" t="n">
-        <v>0.5616246926194823</v>
+        <v>0.5776214357764816</v>
       </c>
       <c r="AD40" t="n">
-        <v>0.6491350058040658</v>
+        <v>0.6480731013092664</v>
       </c>
       <c r="AE40" t="n">
-        <v>0.1086137385685628</v>
+        <v>0.2129172648501963</v>
       </c>
       <c r="AF40" t="n">
-        <v>0.4072164525294484</v>
+        <v>0.4533124567492485</v>
       </c>
       <c r="AG40" t="n">
-        <v>0.07655592394081011</v>
+        <v>0.1871085761176741</v>
       </c>
       <c r="AH40" t="n">
-        <v>0.4094603836691835</v>
+        <v>0.4551189716659734</v>
       </c>
       <c r="AI40" t="n">
-        <v>1.149224901005794</v>
+        <v>1.050678974273784</v>
       </c>
       <c r="AJ40" t="n">
-        <v>1.894614587002008</v>
+        <v>1.650767614553544</v>
       </c>
       <c r="AK40" t="n">
-        <v>0.3219914478553688</v>
+        <v>0.3847006176890493</v>
       </c>
       <c r="AL40" t="n">
-        <v>0.205050937036356</v>
+        <v>0.2905556711605586</v>
       </c>
       <c r="AM40" t="n">
-        <v>0.1105084819653284</v>
+        <v>0.2144426602373414</v>
       </c>
       <c r="AN40" t="n">
-        <v>-0.01231337974458118</v>
+        <v>-0.009913095722941884</v>
       </c>
       <c r="AO40" t="n">
-        <v>0.9026114419863938</v>
+        <v>0.8521386160182871</v>
       </c>
       <c r="AP40" t="n">
         <v>28.18282268717576</v>
       </c>
       <c r="AQ40" t="n">
-        <v>35.95599581776218</v>
+        <v>37.83813473624378</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>5675</v>
+        <v>39</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -6072,66 +6072,66 @@
         <v>37.50617586258219</v>
       </c>
       <c r="Y41" t="n">
-        <v>0.3271892564783743</v>
+        <v>0.3312103576185135</v>
       </c>
       <c r="Z41" t="n">
-        <v>1.394379864489899</v>
+        <v>1.411516559390082</v>
       </c>
       <c r="AA41" t="n">
-        <v>0.7257562758110796</v>
+        <v>0.7346756988371836</v>
       </c>
       <c r="AB41" t="n">
-        <v>-0.01175575054159728</v>
+        <v>-0.06919145092475294</v>
       </c>
       <c r="AC41" t="n">
-        <v>1.220221649060769</v>
+        <v>1.235217968674292</v>
       </c>
       <c r="AD41" t="n">
-        <v>0.9960453790284073</v>
+        <v>1.00828660984494</v>
       </c>
       <c r="AE41" t="n">
-        <v>0.1138560193357898</v>
+        <v>0.1152552907363565</v>
       </c>
       <c r="AF41" t="n">
-        <v>0.3148109352679391</v>
+        <v>0.3186799089144435</v>
       </c>
       <c r="AG41" t="n">
-        <v>0.06192149723318831</v>
+        <v>0.06268250205896857</v>
       </c>
       <c r="AH41" t="n">
-        <v>0.2651996244884753</v>
+        <v>0.2684588834380905</v>
       </c>
       <c r="AI41" t="n">
-        <v>0.9254377696180518</v>
+        <v>0.9368112447455426</v>
       </c>
       <c r="AJ41" t="n">
-        <v>1.92901229382374</v>
+        <v>1.952719531700451</v>
       </c>
       <c r="AK41" t="n">
-        <v>0.2531481423909876</v>
+        <v>0.2562592906449028</v>
       </c>
       <c r="AL41" t="n">
-        <v>0.1748472192362094</v>
+        <v>0.1769960622642119</v>
       </c>
       <c r="AM41" t="n">
-        <v>0.07562010327455861</v>
+        <v>0.07654946167332641</v>
       </c>
       <c r="AN41" t="n">
-        <v>-0.03252923071153283</v>
+        <v>-0.09022023368529022</v>
       </c>
       <c r="AO41" t="n">
-        <v>0.5901921271220922</v>
+        <v>0.5974454894751702</v>
       </c>
       <c r="AP41" t="n">
         <v>28.18282268717576</v>
       </c>
       <c r="AQ41" t="n">
-        <v>37.62075831093964</v>
+        <v>37.50617586258219</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>5676</v>
+        <v>40</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -6209,66 +6209,66 @@
         <v>38.44722450391586</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.4792672858531931</v>
+        <v>0.4868973467388543</v>
       </c>
       <c r="Z42" t="n">
-        <v>1.503643295791347</v>
+        <v>1.47315114340464</v>
       </c>
       <c r="AA42" t="n">
-        <v>0.4979625783636747</v>
+        <v>0.5048968928423921</v>
       </c>
       <c r="AB42" t="n">
-        <v>-0.02478027082221081</v>
+        <v>-0.02385807159061382</v>
       </c>
       <c r="AC42" t="n">
-        <v>1.513026064159467</v>
+        <v>1.482184731497798</v>
       </c>
       <c r="AD42" t="n">
-        <v>1.01082528837481</v>
+        <v>0.9986733870296429</v>
       </c>
       <c r="AE42" t="n">
-        <v>0.4048228850964073</v>
+        <v>0.4152233987211513</v>
       </c>
       <c r="AF42" t="n">
-        <v>0.3361945467138769</v>
+        <v>0.3491490679754309</v>
       </c>
       <c r="AG42" t="n">
-        <v>0.06438778151285875</v>
+        <v>0.0874576074782893</v>
       </c>
       <c r="AH42" t="n">
-        <v>0.3034112376895789</v>
+        <v>0.3175857917186649</v>
       </c>
       <c r="AI42" t="n">
-        <v>1.158851361190436</v>
+        <v>1.141190660866182</v>
       </c>
       <c r="AJ42" t="n">
-        <v>2.090695994679598</v>
+        <v>2.038356641682943</v>
       </c>
       <c r="AK42" t="n">
-        <v>0.2479530343598696</v>
+        <v>0.2641914686775668</v>
       </c>
       <c r="AL42" t="n">
-        <v>0.1115350439817383</v>
+        <v>0.1328502818099911</v>
       </c>
       <c r="AM42" t="n">
-        <v>0.06844313068349561</v>
+        <v>0.09136203659176251</v>
       </c>
       <c r="AN42" t="n">
-        <v>-0.03164383024535444</v>
+        <v>-0.0304662032473922</v>
       </c>
       <c r="AO42" t="n">
-        <v>0.5298063893573182</v>
+        <v>0.5355556345428003</v>
       </c>
       <c r="AP42" t="n">
         <v>28.18282268717576</v>
       </c>
       <c r="AQ42" t="n">
-        <v>38.06523418847039</v>
+        <v>38.44722450391586</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>5677</v>
+        <v>41</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -6346,66 +6346,66 @@
         <v>27.6223748911484</v>
       </c>
       <c r="Y43" t="n">
-        <v>-0.1226177739070854</v>
+        <v>-0.3924007916268466</v>
       </c>
       <c r="Z43" t="n">
-        <v>-0.1923786113174558</v>
+        <v>-0.6156490773535483</v>
       </c>
       <c r="AA43" t="n">
-        <v>-0.00246082394611497</v>
+        <v>-0.007875116581724347</v>
       </c>
       <c r="AB43" t="n">
-        <v>-0.00890499901732048</v>
+        <v>-0.02849773366853572</v>
       </c>
       <c r="AC43" t="n">
-        <v>-0.1885175506481785</v>
+        <v>-0.6032929301583483</v>
       </c>
       <c r="AD43" t="n">
-        <v>-0.01133917870149296</v>
+        <v>-0.03628758341540081</v>
       </c>
       <c r="AE43" t="n">
-        <v>-0.08387049335653501</v>
+        <v>-0.2684019366733651</v>
       </c>
       <c r="AF43" t="n">
-        <v>0.09806268122496017</v>
+        <v>0.519335449180103</v>
       </c>
       <c r="AG43" t="n">
-        <v>0.01523072294899487</v>
+        <v>0.2542570273183558</v>
       </c>
       <c r="AH43" t="n">
-        <v>0.13538551127422</v>
+        <v>0.6387757847074921</v>
       </c>
       <c r="AI43" t="n">
-        <v>0.2650527501843293</v>
+        <v>1.053736239257501</v>
       </c>
       <c r="AJ43" t="n">
-        <v>-0.1900902529023798</v>
+        <v>-0.6083258841084791</v>
       </c>
       <c r="AK43" t="n">
-        <v>-0.01987668969950637</v>
+        <v>-0.06360928374802924</v>
       </c>
       <c r="AL43" t="n">
-        <v>0.002783866053925819</v>
+        <v>0.2144246576441829</v>
       </c>
       <c r="AM43" t="n">
-        <v>-0.02678395612967027</v>
+        <v>-0.08571388350391534</v>
       </c>
       <c r="AN43" t="n">
-        <v>0.0102418012830358</v>
+        <v>0.2382915049580322</v>
       </c>
       <c r="AO43" t="n">
-        <v>-0.2403647993710842</v>
+        <v>-0.7692142382548298</v>
       </c>
       <c r="AP43" t="n">
         <v>28.18282268717576</v>
       </c>
       <c r="AQ43" t="n">
-        <v>26.38928043127652</v>
+        <v>27.6223748911484</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>5678</v>
+        <v>42</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -6483,66 +6483,66 @@
         <v>33.55418560254238</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.6243139270252102</v>
+        <v>0.5978837845240925</v>
       </c>
       <c r="Z44" t="n">
-        <v>1.409105561414708</v>
+        <v>1.284432904330807</v>
       </c>
       <c r="AA44" t="n">
-        <v>0.1731052527439521</v>
+        <v>0.2031587331823657</v>
       </c>
       <c r="AB44" t="n">
-        <v>-0.02759886018611771</v>
+        <v>-0.02414395406137022</v>
       </c>
       <c r="AC44" t="n">
-        <v>0.4229700509834422</v>
+        <v>0.4217447243995778</v>
       </c>
       <c r="AD44" t="n">
-        <v>0.5670117795217572</v>
+        <v>0.5477548876199686</v>
       </c>
       <c r="AE44" t="n">
-        <v>0.2490074631779925</v>
+        <v>0.269559282680338</v>
       </c>
       <c r="AF44" t="n">
-        <v>0.4328153236159138</v>
+        <v>0.4303575369779619</v>
       </c>
       <c r="AG44" t="n">
-        <v>0.05979391400657837</v>
+        <v>0.1040320395921856</v>
       </c>
       <c r="AH44" t="n">
-        <v>0.3712833890624248</v>
+        <v>0.3765283501511106</v>
       </c>
       <c r="AI44" t="n">
-        <v>0.99453198165359</v>
+        <v>0.9217568591133669</v>
       </c>
       <c r="AJ44" t="n">
-        <v>0.8507671649537468</v>
+        <v>0.7959889430967384</v>
       </c>
       <c r="AK44" t="n">
-        <v>0.1816889286290699</v>
+        <v>0.2106678793880565</v>
       </c>
       <c r="AL44" t="n">
-        <v>0.1139006813263147</v>
+        <v>0.1513655633597382</v>
       </c>
       <c r="AM44" t="n">
-        <v>-0.1193405028512131</v>
+        <v>-0.1044011092874711</v>
       </c>
       <c r="AN44" t="n">
-        <v>-0.0961820446432772</v>
+        <v>-0.08414169468360959</v>
       </c>
       <c r="AO44" t="n">
-        <v>-0.835811095067474</v>
+        <v>-0.7311818150172416</v>
       </c>
       <c r="AP44" t="n">
         <v>28.18282268717576</v>
       </c>
       <c r="AQ44" t="n">
-        <v>32.88178266599371</v>
+        <v>33.55418560254238</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>5679</v>
+        <v>43</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -6620,66 +6620,66 @@
         <v>40.39411279840822</v>
       </c>
       <c r="Y45" t="n">
-        <v>1.060942942306777</v>
+        <v>1.065166054353324</v>
       </c>
       <c r="Z45" t="n">
-        <v>1.622514524722103</v>
+        <v>1.628972987625068</v>
       </c>
       <c r="AA45" t="n">
-        <v>0.6811211020673092</v>
+        <v>0.6838323230167068</v>
       </c>
       <c r="AB45" t="n">
-        <v>-0.02116002409245914</v>
+        <v>-0.03339609469356002</v>
       </c>
       <c r="AC45" t="n">
-        <v>1.595175416271351</v>
+        <v>1.601525055114476</v>
       </c>
       <c r="AD45" t="n">
-        <v>1.038386437153531</v>
+        <v>1.04251976242188</v>
       </c>
       <c r="AE45" t="n">
-        <v>0.6857761875334771</v>
+        <v>0.6885059381763445</v>
       </c>
       <c r="AF45" t="n">
-        <v>0.3539391192081708</v>
+        <v>0.3553479834349522</v>
       </c>
       <c r="AG45" t="n">
-        <v>0.05768371567090658</v>
+        <v>0.05791332725964076</v>
       </c>
       <c r="AH45" t="n">
-        <v>0.2656521555574018</v>
+        <v>0.2667095911400226</v>
       </c>
       <c r="AI45" t="n">
-        <v>1.248987237634214</v>
+        <v>1.253958865078917</v>
       </c>
       <c r="AJ45" t="n">
-        <v>3.436797814718432</v>
+        <v>3.45047808127577</v>
       </c>
       <c r="AK45" t="n">
-        <v>0.2380102586765264</v>
+        <v>0.2389576649417804</v>
       </c>
       <c r="AL45" t="n">
-        <v>0.0961111522565066</v>
+        <v>0.09649372529480725</v>
       </c>
       <c r="AM45" t="n">
-        <v>-0.04447727854424341</v>
+        <v>-0.05680616410667823</v>
       </c>
       <c r="AN45" t="n">
-        <v>-0.01276478289992957</v>
+        <v>-0.02496743601663986</v>
       </c>
       <c r="AO45" t="n">
-        <v>-0.09140586700761233</v>
+        <v>-0.1039215530843483</v>
       </c>
       <c r="AP45" t="n">
         <v>28.18282268717576</v>
       </c>
       <c r="AQ45" t="n">
-        <v>40.44272016862221</v>
+        <v>40.39411279840822</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>5680</v>
+        <v>44</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -6757,66 +6757,66 @@
         <v>32.45153581075479</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.4161126205334392</v>
+        <v>0.5296318547923503</v>
       </c>
       <c r="Z46" t="n">
-        <v>1.033417682049873</v>
+        <v>1.315343242936564</v>
       </c>
       <c r="AA46" t="n">
-        <v>0.183584107513241</v>
+        <v>0.2336674894599176</v>
       </c>
       <c r="AB46" t="n">
-        <v>-0.008365764499517649</v>
+        <v>-0.2435566223649839</v>
       </c>
       <c r="AC46" t="n">
-        <v>0.2664259291188256</v>
+        <v>0.3391092988794348</v>
       </c>
       <c r="AD46" t="n">
-        <v>0.3923819148427026</v>
+        <v>0.4994272009310859</v>
       </c>
       <c r="AE46" t="n">
-        <v>0.1385341200630365</v>
+        <v>0.176327463624997</v>
       </c>
       <c r="AF46" t="n">
-        <v>0.2903832341235527</v>
+        <v>0.3696023703686232</v>
       </c>
       <c r="AG46" t="n">
-        <v>0.04700691859363352</v>
+        <v>0.05983082524847008</v>
       </c>
       <c r="AH46" t="n">
-        <v>0.2535153708587877</v>
+        <v>0.3226766251746509</v>
       </c>
       <c r="AI46" t="n">
-        <v>0.6868573090207927</v>
+        <v>0.8742381091157776</v>
       </c>
       <c r="AJ46" t="n">
-        <v>0.6561097792322791</v>
+        <v>0.8351023789586463</v>
       </c>
       <c r="AK46" t="n">
-        <v>0.1126221318778558</v>
+        <v>0.1433464539495842</v>
       </c>
       <c r="AL46" t="n">
-        <v>-0.007108671673827901</v>
+        <v>-0.2419565834042268</v>
       </c>
       <c r="AM46" t="n">
-        <v>-0.1053967842898547</v>
+        <v>-0.3670585697898631</v>
       </c>
       <c r="AN46" t="n">
-        <v>-0.002533865200980675</v>
+        <v>-0.2361337289221302</v>
       </c>
       <c r="AO46" t="n">
-        <v>-0.08483290858480499</v>
+        <v>-0.3408846853798621</v>
       </c>
       <c r="AP46" t="n">
         <v>28.18282268717576</v>
       </c>
       <c r="AQ46" t="n">
-        <v>33.61607882422658</v>
+        <v>32.45153581075479</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>5681</v>
+        <v>45</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -6894,66 +6894,66 @@
         <v>35.21889540923254</v>
       </c>
       <c r="Y47" t="n">
-        <v>0.5027435437476625</v>
+        <v>0.5056312507704154</v>
       </c>
       <c r="Z47" t="n">
-        <v>1.3878007401076</v>
+        <v>1.32429201487373</v>
       </c>
       <c r="AA47" t="n">
-        <v>0.6000420739615145</v>
+        <v>0.5956305066587404</v>
       </c>
       <c r="AB47" t="n">
-        <v>-0.02110411747991315</v>
+        <v>-0.019520899906683</v>
       </c>
       <c r="AC47" t="n">
-        <v>0.465116688719142</v>
+        <v>0.4708271386575007</v>
       </c>
       <c r="AD47" t="n">
-        <v>0.4270711119143797</v>
+        <v>0.4356357170117167</v>
       </c>
       <c r="AE47" t="n">
-        <v>0.1597229272573636</v>
+        <v>0.1883438244277065</v>
       </c>
       <c r="AF47" t="n">
-        <v>0.3522376675255587</v>
+        <v>0.366416230388933</v>
       </c>
       <c r="AG47" t="n">
-        <v>0.06425384752817553</v>
+        <v>0.1000367748033652</v>
       </c>
       <c r="AH47" t="n">
-        <v>0.3732342621034104</v>
+        <v>0.3858376736938028</v>
       </c>
       <c r="AI47" t="n">
-        <v>0.9842377684004259</v>
+        <v>0.9510040825904935</v>
       </c>
       <c r="AJ47" t="n">
-        <v>0.889010047663258</v>
+        <v>0.8629202853589276</v>
       </c>
       <c r="AK47" t="n">
-        <v>0.252284268106763</v>
+        <v>0.2739612719077671</v>
       </c>
       <c r="AL47" t="n">
-        <v>-0.01254422535600183</v>
+        <v>-0.01160316548723052</v>
       </c>
       <c r="AM47" t="n">
-        <v>-0.000364418910682116</v>
+        <v>-0.0003370804340100419</v>
       </c>
       <c r="AN47" t="n">
-        <v>-0.008390210509754283</v>
+        <v>-0.007760782212892945</v>
       </c>
       <c r="AO47" t="n">
-        <v>0.6207207472778747</v>
+        <v>0.6147578789544961</v>
       </c>
       <c r="AP47" t="n">
         <v>28.18282268717576</v>
       </c>
       <c r="AQ47" t="n">
-        <v>34.69105367452421</v>
+        <v>35.21889540923254</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>5682</v>
+        <v>46</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -7031,66 +7031,66 @@
         <v>33.67210799888386</v>
       </c>
       <c r="Y48" t="n">
-        <v>0.3828463057715336</v>
+        <v>0.401576281911125</v>
       </c>
       <c r="Z48" t="n">
-        <v>1.882974122813443</v>
+        <v>1.525034304272053</v>
       </c>
       <c r="AA48" t="n">
-        <v>0.162513658000688</v>
+        <v>0.2365673553955881</v>
       </c>
       <c r="AB48" t="n">
-        <v>-0.01184745856986476</v>
+        <v>-0.008872658865262176</v>
       </c>
       <c r="AC48" t="n">
-        <v>0.4399858464443715</v>
+        <v>0.4443685524321141</v>
       </c>
       <c r="AD48" t="n">
-        <v>-0.1283049654889268</v>
+        <v>-0.09608864068097589</v>
       </c>
       <c r="AE48" t="n">
-        <v>-0.359174100278164</v>
+        <v>-0.2689884287176701</v>
       </c>
       <c r="AF48" t="n">
-        <v>0.4543233268170717</v>
+        <v>0.4551060090422547</v>
       </c>
       <c r="AG48" t="n">
-        <v>0.07441223268217735</v>
+        <v>0.170587475593954</v>
       </c>
       <c r="AH48" t="n">
-        <v>0.4371407343668245</v>
+        <v>0.4422378246689699</v>
       </c>
       <c r="AI48" t="n">
-        <v>0.9919122221963819</v>
+        <v>0.8577107407090381</v>
       </c>
       <c r="AJ48" t="n">
-        <v>1.13024088132026</v>
+        <v>0.9613062077417045</v>
       </c>
       <c r="AK48" t="n">
-        <v>0.1258477513784972</v>
+        <v>0.2091079572870561</v>
       </c>
       <c r="AL48" t="n">
-        <v>-0.006975688765824441</v>
+        <v>-0.00522415051332891</v>
       </c>
       <c r="AM48" t="n">
-        <v>0.003800927778817041</v>
+        <v>0.1177060903800717</v>
       </c>
       <c r="AN48" t="n">
-        <v>0.1004773526850135</v>
+        <v>0.190107857682948</v>
       </c>
       <c r="AO48" t="n">
-        <v>-0.1908878374441965</v>
+        <v>-0.1429574666315384</v>
       </c>
       <c r="AP48" t="n">
         <v>28.18282268717576</v>
       </c>
       <c r="AQ48" t="n">
-        <v>32.29379346607052</v>
+        <v>33.67210799888386</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>5683</v>
+        <v>47</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -7168,66 +7168,66 @@
         <v>30.26898092159366</v>
       </c>
       <c r="Y49" t="n">
-        <v>0.220847293460277</v>
+        <v>0.2963430203319388</v>
       </c>
       <c r="Z49" t="n">
-        <v>0.9691646756213128</v>
+        <v>1.300469580915657</v>
       </c>
       <c r="AA49" t="n">
-        <v>-0.06858731559700577</v>
+        <v>-0.1939113890502012</v>
       </c>
       <c r="AB49" t="n">
-        <v>0.003330273185782805</v>
+        <v>0.004468713195178255</v>
       </c>
       <c r="AC49" t="n">
-        <v>0.1972753566308861</v>
+        <v>0.2647131151352431</v>
       </c>
       <c r="AD49" t="n">
-        <v>-0.07587037083059199</v>
+        <v>-0.2036841263627076</v>
       </c>
       <c r="AE49" t="n">
-        <v>-0.1916341568116285</v>
+        <v>-0.3590212801270617</v>
       </c>
       <c r="AF49" t="n">
-        <v>0.2439944039861539</v>
+        <v>0.3274028741237596</v>
       </c>
       <c r="AG49" t="n">
-        <v>0.04408759425191507</v>
+        <v>0.05915875460856167</v>
       </c>
       <c r="AH49" t="n">
-        <v>0.2609794031853621</v>
+        <v>0.3501941245129533</v>
       </c>
       <c r="AI49" t="n">
-        <v>0.6055835246062394</v>
+        <v>0.8125997286779193</v>
       </c>
       <c r="AJ49" t="n">
-        <v>-0.06315388825844487</v>
+        <v>-0.1866205672201711</v>
       </c>
       <c r="AK49" t="n">
-        <v>0.0732147658503819</v>
+        <v>0.09824292842828233</v>
       </c>
       <c r="AL49" t="n">
-        <v>-0.004504007715188276</v>
+        <v>-0.107921469440998</v>
       </c>
       <c r="AM49" t="n">
-        <v>-0.08393483870482742</v>
+        <v>-0.2145053989704729</v>
       </c>
       <c r="AN49" t="n">
-        <v>0.0494766946082711</v>
+        <v>0.06639009646225626</v>
       </c>
       <c r="AO49" t="n">
-        <v>-0.09411117305099047</v>
+        <v>-0.2281604708022317</v>
       </c>
       <c r="AP49" t="n">
         <v>28.18282268717576</v>
       </c>
       <c r="AQ49" t="n">
-        <v>30.98212541980781</v>
+        <v>30.26898092159366</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>7093</v>
+        <v>48</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -7305,66 +7305,66 @@
         <v>31.78593454957964</v>
       </c>
       <c r="Y50" t="n">
-        <v>-2.767578003669494</v>
+        <v>-0.3451891885043247</v>
       </c>
       <c r="Z50" t="n">
-        <v>-16.42185448398483</v>
+        <v>-1.445604583425653</v>
       </c>
       <c r="AA50" t="n">
-        <v>0.457986696821613</v>
+        <v>0.03690972660310674</v>
       </c>
       <c r="AB50" t="n">
-        <v>2.781952877892161</v>
+        <v>0.2242010976701365</v>
       </c>
       <c r="AC50" t="n">
-        <v>-2.288233089983299</v>
+        <v>-0.3065581762161259</v>
       </c>
       <c r="AD50" t="n">
-        <v>2.154531772995586</v>
+        <v>0.1736364380250731</v>
       </c>
       <c r="AE50" t="n">
-        <v>-3.940211515912039</v>
+        <v>-0.439693204980968</v>
       </c>
       <c r="AF50" t="n">
-        <v>1.601814678314959</v>
+        <v>0.1290922689583643</v>
       </c>
       <c r="AG50" t="n">
-        <v>-7.428339917855077</v>
+        <v>-0.7208058804489106</v>
       </c>
       <c r="AH50" t="n">
-        <v>23.21826141817809</v>
+        <v>1.871189025995248</v>
       </c>
       <c r="AI50" t="n">
-        <v>14.53064142926211</v>
+        <v>1.17104275352072</v>
       </c>
       <c r="AJ50" t="n">
-        <v>2.727575879308513</v>
+        <v>0.2198187866441861</v>
       </c>
       <c r="AK50" t="n">
-        <v>-2.187824909408787</v>
+        <v>-0.2984661540691068</v>
       </c>
       <c r="AL50" t="n">
-        <v>-1.721310190316275</v>
+        <v>-0.2608691433752863</v>
       </c>
       <c r="AM50" t="n">
-        <v>-9.966339648113497</v>
+        <v>-0.9253464856951026</v>
       </c>
       <c r="AN50" t="n">
-        <v>15.32684575299464</v>
+        <v>1.235209866044134</v>
       </c>
       <c r="AO50" t="n">
-        <v>-17.27359938068367</v>
+        <v>-1.514247780904794</v>
       </c>
       <c r="AP50" t="n">
         <v>32.98161518373895</v>
       </c>
       <c r="AQ50" t="n">
-        <v>32.88525377058497</v>
+        <v>31.78593454957964</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>7094</v>
+        <v>49</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -7442,66 +7442,66 @@
         <v>33.20394988332896</v>
       </c>
       <c r="Y51" t="n">
-        <v>0.004154705761613537</v>
+        <v>-0.1042517008278639</v>
       </c>
       <c r="Z51" t="n">
-        <v>0.06062226577726706</v>
+        <v>-1.521160505206137</v>
       </c>
       <c r="AA51" t="n">
-        <v>-0.009986039419031723</v>
+        <v>1.217449848752022</v>
       </c>
       <c r="AB51" t="n">
-        <v>-0.003917485843006366</v>
+        <v>1.065175038412635</v>
       </c>
       <c r="AC51" t="n">
-        <v>0.001608838519603217</v>
+        <v>-0.04036968239139035</v>
       </c>
       <c r="AD51" t="n">
-        <v>0.1427356537961426</v>
+        <v>-3.581585683999436</v>
       </c>
       <c r="AE51" t="n">
-        <v>0.01096946878740916</v>
+        <v>-0.2752507262563506</v>
       </c>
       <c r="AF51" t="n">
-        <v>0.0002841572942686069</v>
+        <v>-0.007130199568847746</v>
       </c>
       <c r="AG51" t="n">
-        <v>0.03182709643032886</v>
+        <v>-0.7986194752779838</v>
       </c>
       <c r="AH51" t="n">
-        <v>-0.05207857297582411</v>
+        <v>2.273654178789901</v>
       </c>
       <c r="AI51" t="n">
-        <v>0.08078034110866282</v>
+        <v>-2.026975780533375</v>
       </c>
       <c r="AJ51" t="n">
-        <v>-0.002831668382393111</v>
+        <v>1.037929230032317</v>
       </c>
       <c r="AK51" t="n">
-        <v>0.006285135345237697</v>
+        <v>-0.1577093751688166</v>
       </c>
       <c r="AL51" t="n">
-        <v>0.006911557206889633</v>
+        <v>-0.1734278275117833</v>
       </c>
       <c r="AM51" t="n">
-        <v>0.02103975918973922</v>
+        <v>-0.5279388737476186</v>
       </c>
       <c r="AN51" t="n">
-        <v>-0.07485935094456474</v>
+        <v>2.845279460023006</v>
       </c>
       <c r="AO51" t="n">
-        <v>-0.00121116206232799</v>
+        <v>0.9972667740697363</v>
       </c>
       <c r="AP51" t="n">
         <v>32.98161518373895</v>
       </c>
       <c r="AQ51" t="n">
-        <v>27.40269529981692</v>
+        <v>33.20394988332896</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>7095</v>
+        <v>50</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -7579,66 +7579,66 @@
         <v>34.19347059059638</v>
       </c>
       <c r="Y52" t="n">
-        <v>0.07987376330527583</v>
+        <v>-0.3292995421194053</v>
       </c>
       <c r="Z52" t="n">
-        <v>0.3505308478056425</v>
+        <v>-1.445150984559916</v>
       </c>
       <c r="AA52" t="n">
-        <v>-0.08094221634296689</v>
+        <v>1.368376514937799</v>
       </c>
       <c r="AB52" t="n">
-        <v>-0.05033112204090939</v>
+        <v>1.242174631862438</v>
       </c>
       <c r="AC52" t="n">
-        <v>0.01518366936885107</v>
+        <v>-0.0625984699349309</v>
       </c>
       <c r="AD52" t="n">
-        <v>1.18175851965311</v>
+        <v>-4.872094706870672</v>
       </c>
       <c r="AE52" t="n">
-        <v>0.05722169536582124</v>
+        <v>-0.2359107334312418</v>
       </c>
       <c r="AF52" t="n">
-        <v>-0.184746265569279</v>
+        <v>1.796334638680128</v>
       </c>
       <c r="AG52" t="n">
-        <v>0.1076095695671015</v>
+        <v>-0.443647331986575</v>
       </c>
       <c r="AH52" t="n">
-        <v>-0.3728894312377279</v>
+        <v>2.572001838317677</v>
       </c>
       <c r="AI52" t="n">
-        <v>-0.2899371176341363</v>
+        <v>2.230010203555129</v>
       </c>
       <c r="AJ52" t="n">
-        <v>-0.19951072571362</v>
+        <v>1.85720481386631</v>
       </c>
       <c r="AK52" t="n">
-        <v>0.00510454215217147</v>
+        <v>-0.02104475016426627</v>
       </c>
       <c r="AL52" t="n">
-        <v>0.08501474860021394</v>
+        <v>-0.350494538243419</v>
       </c>
       <c r="AM52" t="n">
-        <v>0.322262508008735</v>
+        <v>-1.328607692164645</v>
       </c>
       <c r="AN52" t="n">
-        <v>0.02247728084232568</v>
+        <v>-0.09266820521749755</v>
       </c>
       <c r="AO52" t="n">
-        <v>0.1631751407268224</v>
+        <v>-0.6727302796694808</v>
       </c>
       <c r="AP52" t="n">
         <v>32.98161518373895</v>
       </c>
       <c r="AQ52" t="n">
-        <v>27.98543854100501</v>
+        <v>34.19347059059638</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>7096</v>
+        <v>51</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -7716,66 +7716,66 @@
         <v>32.60812937106223</v>
       </c>
       <c r="Y53" t="n">
-        <v>-0.01809182053912655</v>
+        <v>-0.247294267359284</v>
       </c>
       <c r="Z53" t="n">
-        <v>-0.1139391660332201</v>
+        <v>-1.557416652833618</v>
       </c>
       <c r="AA53" t="n">
-        <v>0.02751450671780998</v>
+        <v>1.052039118954409</v>
       </c>
       <c r="AB53" t="n">
-        <v>0.02186094002648823</v>
+        <v>0.9747613994527338</v>
       </c>
       <c r="AC53" t="n">
-        <v>-0.005413498988506663</v>
+        <v>-0.0739962715923343</v>
       </c>
       <c r="AD53" t="n">
-        <v>-0.3685188318877787</v>
+        <v>-5.037226316870548</v>
       </c>
       <c r="AE53" t="n">
-        <v>0.02263762009611143</v>
+        <v>0.9853777179362523</v>
       </c>
       <c r="AF53" t="n">
-        <v>0.06213611782728273</v>
+        <v>1.525276510161057</v>
       </c>
       <c r="AG53" t="n">
-        <v>-0.04048307120722877</v>
+        <v>-0.5533567731889901</v>
       </c>
       <c r="AH53" t="n">
-        <v>0.1140230764128401</v>
+        <v>2.234511237598632</v>
       </c>
       <c r="AI53" t="n">
-        <v>0.07771604978324111</v>
+        <v>1.738236165062776</v>
       </c>
       <c r="AJ53" t="n">
-        <v>0.05829122978476264</v>
+        <v>1.472721336429526</v>
       </c>
       <c r="AK53" t="n">
-        <v>-0.001006979917021003</v>
+        <v>-0.0137642511037888</v>
       </c>
       <c r="AL53" t="n">
-        <v>-0.02419758920133424</v>
+        <v>-0.3307530649258679</v>
       </c>
       <c r="AM53" t="n">
-        <v>-0.09821724441714683</v>
+        <v>-1.342516163459505</v>
       </c>
       <c r="AN53" t="n">
-        <v>-0.01165639857096465</v>
+        <v>-0.1593294902754808</v>
       </c>
       <c r="AO53" t="n">
-        <v>-0.07614075256292098</v>
+        <v>-1.040756046662682</v>
       </c>
       <c r="AP53" t="n">
         <v>32.98161518373895</v>
       </c>
       <c r="AQ53" t="n">
-        <v>27.87649598275922</v>
+        <v>32.60812937106223</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>7097</v>
+        <v>52</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -7853,66 +7853,66 @@
         <v>37.80300606774231</v>
       </c>
       <c r="Y54" t="n">
-        <v>0.5836245184163501</v>
+        <v>-0.3195847833561276</v>
       </c>
       <c r="Z54" t="n">
-        <v>2.384761339368103</v>
+        <v>-1.305862608490221</v>
       </c>
       <c r="AA54" t="n">
-        <v>-0.5434086969977162</v>
+        <v>1.363494353711944</v>
       </c>
       <c r="AB54" t="n">
-        <v>-0.5711777431301825</v>
+        <v>1.37870030259211</v>
       </c>
       <c r="AC54" t="n">
-        <v>-0.04234482485657262</v>
+        <v>1.089118648146447</v>
       </c>
       <c r="AD54" t="n">
-        <v>6.51069481746544</v>
+        <v>-3.565167204392872</v>
       </c>
       <c r="AE54" t="n">
-        <v>-0.665068945496318</v>
+        <v>1.43011383752832</v>
       </c>
       <c r="AF54" t="n">
-        <v>0.03811480127554409</v>
+        <v>-0.02087114253074767</v>
       </c>
       <c r="AG54" t="n">
-        <v>0.9288886142407216</v>
+        <v>-0.5086466678089755</v>
       </c>
       <c r="AH54" t="n">
-        <v>-3.598056130349366</v>
+        <v>3.036177401480366</v>
       </c>
       <c r="AI54" t="n">
-        <v>-2.634345251510861</v>
+        <v>2.508462539076603</v>
       </c>
       <c r="AJ54" t="n">
-        <v>-1.353114842261192</v>
+        <v>1.806878335793983</v>
       </c>
       <c r="AK54" t="n">
-        <v>0.7198726246395124</v>
+        <v>-0.3941923780270373</v>
       </c>
       <c r="AL54" t="n">
-        <v>0.1014797884019404</v>
+        <v>-0.05556894059122384</v>
       </c>
       <c r="AM54" t="n">
-        <v>1.027036782441865</v>
+        <v>-0.562391258862956</v>
       </c>
       <c r="AN54" t="n">
-        <v>0.8813031129190853</v>
+        <v>-0.4825894997995963</v>
       </c>
       <c r="AO54" t="n">
-        <v>1.053130919437011</v>
+        <v>-0.5766800504666527</v>
       </c>
       <c r="AP54" t="n">
         <v>32.98161518373895</v>
       </c>
       <c r="AQ54" t="n">
-        <v>30.34148764879497</v>
+        <v>37.80300606774231</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>7098</v>
+        <v>53</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -7990,66 +7990,66 @@
         <v>25.27995106248125</v>
       </c>
       <c r="Y55" t="n">
-        <v>-0.1422864298301612</v>
+        <v>-0.184337560560351</v>
       </c>
       <c r="Z55" t="n">
-        <v>-1.228616300180079</v>
+        <v>-1.59171982816784</v>
       </c>
       <c r="AA55" t="n">
-        <v>0.3155294237274632</v>
+        <v>0.8640083341909691</v>
       </c>
       <c r="AB55" t="n">
-        <v>0.1790687739545921</v>
+        <v>0.6872182965068605</v>
       </c>
       <c r="AC55" t="n">
-        <v>-0.006765488152592709</v>
+        <v>-0.008764950976263333</v>
       </c>
       <c r="AD55" t="n">
-        <v>-3.582428414977707</v>
+        <v>-4.641174254546457</v>
       </c>
       <c r="AE55" t="n">
-        <v>0.254222677741103</v>
+        <v>0.7845830789891328</v>
       </c>
       <c r="AF55" t="n">
-        <v>0.5071965035955871</v>
+        <v>1.112320432433851</v>
       </c>
       <c r="AG55" t="n">
-        <v>-0.2860225086873069</v>
+        <v>-0.3705531973759147</v>
       </c>
       <c r="AH55" t="n">
-        <v>1.26310012110802</v>
+        <v>2.091622738615192</v>
       </c>
       <c r="AI55" t="n">
-        <v>-1.519278384365166</v>
+        <v>-1.968283774638502</v>
       </c>
       <c r="AJ55" t="n">
-        <v>-0.04793376083534226</v>
+        <v>-0.06210003688628127</v>
       </c>
       <c r="AK55" t="n">
-        <v>-0.3081786521275033</v>
+        <v>-0.3992573361898979</v>
       </c>
       <c r="AL55" t="n">
-        <v>-0.4814862862116757</v>
+        <v>-0.6237840639438771</v>
       </c>
       <c r="AM55" t="n">
-        <v>-0.3334748712057692</v>
+        <v>-0.4320295641659159</v>
       </c>
       <c r="AN55" t="n">
-        <v>-1.34634911200345</v>
+        <v>-1.744247229096629</v>
       </c>
       <c r="AO55" t="n">
-        <v>-0.9379614128077071</v>
+        <v>-1.215165205445771</v>
       </c>
       <c r="AP55" t="n">
         <v>32.98161518373895</v>
       </c>
       <c r="AQ55" t="n">
-        <v>23.00381211381555</v>
+        <v>25.27995106248125</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>7099</v>
+        <v>54</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -8127,66 +8127,66 @@
         <v>32.83576978241662</v>
       </c>
       <c r="Y56" t="n">
-        <v>0.0193009962560351</v>
+        <v>-0.3609299620073633</v>
       </c>
       <c r="Z56" t="n">
-        <v>0.1769856208099489</v>
+        <v>-1.800738164897072</v>
       </c>
       <c r="AA56" t="n">
-        <v>-0.006067580446511052</v>
+        <v>0.05540268826649516</v>
       </c>
       <c r="AB56" t="n">
-        <v>-0.02961551321576371</v>
+        <v>0.2704173535084643</v>
       </c>
       <c r="AC56" t="n">
-        <v>0.02151694946367506</v>
+        <v>-0.3811636887553311</v>
       </c>
       <c r="AD56" t="n">
-        <v>-0.00477439982728523</v>
+        <v>0.04359473889510468</v>
       </c>
       <c r="AE56" t="n">
-        <v>-0.02802007557944104</v>
+        <v>0.2558495146815979</v>
       </c>
       <c r="AF56" t="n">
-        <v>-0.01162838082059021</v>
+        <v>0.1061780001644149</v>
       </c>
       <c r="AG56" t="n">
-        <v>0.02899489742560065</v>
+        <v>-0.4494443524333651</v>
       </c>
       <c r="AH56" t="n">
-        <v>-0.2080595717395284</v>
+        <v>1.899778617780636</v>
       </c>
       <c r="AI56" t="n">
-        <v>-0.2985377278392474</v>
+        <v>2.725928863584532</v>
       </c>
       <c r="AJ56" t="n">
-        <v>-0.04608373341202477</v>
+        <v>0.4207876168911419</v>
       </c>
       <c r="AK56" t="n">
-        <v>0.01041935393208607</v>
+        <v>-0.279832255053811</v>
       </c>
       <c r="AL56" t="n">
-        <v>0.01062564442933842</v>
+        <v>-0.2817158803658056</v>
       </c>
       <c r="AM56" t="n">
-        <v>-0.05116499454067609</v>
+        <v>0.4671842866663575</v>
       </c>
       <c r="AN56" t="n">
-        <v>0.1699068004289031</v>
+        <v>-1.736101909585269</v>
       </c>
       <c r="AO56" t="n">
-        <v>0.1003563133531547</v>
+        <v>-1.101040868663053</v>
       </c>
       <c r="AP56" t="n">
         <v>32.98161518373895</v>
       </c>
       <c r="AQ56" t="n">
-        <v>34.31332019791951</v>
+        <v>32.83576978241662</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>7100</v>
+        <v>55</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -8264,66 +8264,66 @@
         <v>39.81438612521541</v>
       </c>
       <c r="Y57" t="n">
-        <v>-0.5621185901862781</v>
+        <v>-0.1760094251311342</v>
       </c>
       <c r="Z57" t="n">
-        <v>-4.4499870888027</v>
+        <v>-1.393370870516092</v>
       </c>
       <c r="AA57" t="n">
-        <v>0.3070783557975096</v>
+        <v>0.6828152047955853</v>
       </c>
       <c r="AB57" t="n">
-        <v>0.3565002002923207</v>
+        <v>0.6982900718259915</v>
       </c>
       <c r="AC57" t="n">
-        <v>-0.5125212314810375</v>
+        <v>-0.1604796014495527</v>
       </c>
       <c r="AD57" t="n">
-        <v>0.1024395910311394</v>
+        <v>0.6187391326376832</v>
       </c>
       <c r="AE57" t="n">
-        <v>1.170860366352314</v>
+        <v>0.9532808641255579</v>
       </c>
       <c r="AF57" t="n">
-        <v>1.639089674128146</v>
+        <v>1.099891868867213</v>
       </c>
       <c r="AG57" t="n">
-        <v>-2.282050269202781</v>
+        <v>-0.7145509204198819</v>
       </c>
       <c r="AH57" t="n">
-        <v>5.884938601781793</v>
+        <v>2.429343415207841</v>
       </c>
       <c r="AI57" t="n">
-        <v>8.832007012791724</v>
+        <v>3.352123458244826</v>
       </c>
       <c r="AJ57" t="n">
-        <v>1.279845199206743</v>
+        <v>0.9874059724454307</v>
       </c>
       <c r="AK57" t="n">
-        <v>-1.223658600938744</v>
+        <v>-0.3831494824546257</v>
       </c>
       <c r="AL57" t="n">
-        <v>-0.2641143422478198</v>
+        <v>-0.08269894353168676</v>
       </c>
       <c r="AM57" t="n">
-        <v>-1.840550436750825</v>
+        <v>-0.5763093944109139</v>
       </c>
       <c r="AN57" t="n">
-        <v>-0.4939033931803264</v>
+        <v>-0.1546500219378581</v>
       </c>
       <c r="AO57" t="n">
-        <v>-1.111084107114719</v>
+        <v>-0.3479003868219249</v>
       </c>
       <c r="AP57" t="n">
         <v>32.98161518373895</v>
       </c>
       <c r="AQ57" t="n">
-        <v>35.12107846863663</v>
+        <v>39.81438612521541</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>7101</v>
+        <v>56</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -8401,66 +8401,66 @@
         <v>21.87955034609139</v>
       </c>
       <c r="Y58" t="n">
-        <v>-0.2902641776363309</v>
+        <v>-0.353292266506781</v>
       </c>
       <c r="Z58" t="n">
-        <v>-1.624228306928705</v>
+        <v>-1.554832132802542</v>
       </c>
       <c r="AA58" t="n">
-        <v>0.5047676956785222</v>
+        <v>0.4546587844889945</v>
       </c>
       <c r="AB58" t="n">
-        <v>0.1310002290711095</v>
+        <v>0.1179956748959297</v>
       </c>
       <c r="AC58" t="n">
-        <v>-0.05224076166613045</v>
+        <v>-0.138897728362936</v>
       </c>
       <c r="AD58" t="n">
-        <v>-5.276066578502585</v>
+        <v>-4.844147918893601</v>
       </c>
       <c r="AE58" t="n">
-        <v>-0.2471767394698688</v>
+        <v>-0.3144821714249734</v>
       </c>
       <c r="AF58" t="n">
-        <v>0.8101218977691411</v>
+        <v>0.7297000986414502</v>
       </c>
       <c r="AG58" t="n">
-        <v>-0.8053923500875679</v>
+        <v>-0.817283030471754</v>
       </c>
       <c r="AH58" t="n">
-        <v>1.053899943285744</v>
+        <v>0.9492779971650334</v>
       </c>
       <c r="AI58" t="n">
-        <v>-2.220879194223423</v>
+        <v>-2.092252751245734</v>
       </c>
       <c r="AJ58" t="n">
-        <v>0.2415657200274227</v>
+        <v>0.2175851933120252</v>
       </c>
       <c r="AK58" t="n">
-        <v>-0.4563307665383117</v>
+        <v>-0.5028732204799035</v>
       </c>
       <c r="AL58" t="n">
-        <v>-0.2747703597765636</v>
+        <v>-0.3393365390394231</v>
       </c>
       <c r="AM58" t="n">
-        <v>-1.470283363965476</v>
+        <v>-1.416169494037984</v>
       </c>
       <c r="AN58" t="n">
-        <v>-0.5473924952331758</v>
+        <v>-0.5848951391492823</v>
       </c>
       <c r="AO58" t="n">
-        <v>-0.5783952294513537</v>
+        <v>-0.6128201937360745</v>
       </c>
       <c r="AP58" t="n">
         <v>32.98161518373895</v>
       </c>
       <c r="AQ58" t="n">
-        <v>22.98166600391345</v>
+        <v>21.87955034609139</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>7102</v>
+        <v>57</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -8538,66 +8538,66 @@
         <v>38.31284892756008</v>
       </c>
       <c r="Y59" t="n">
-        <v>2.003300998020572</v>
+        <v>-0.2346124819562306</v>
       </c>
       <c r="Z59" t="n">
-        <v>11.80817205623715</v>
+        <v>-1.382889818463294</v>
       </c>
       <c r="AA59" t="n">
-        <v>-0.4238527894449322</v>
+        <v>0.7940874282063211</v>
       </c>
       <c r="AB59" t="n">
-        <v>-2.67066204119185</v>
+        <v>1.057217879174704</v>
       </c>
       <c r="AC59" t="n">
-        <v>1.167641230746121</v>
+        <v>-0.1367459046096686</v>
       </c>
       <c r="AD59" t="n">
-        <v>-0.1956169983674593</v>
+        <v>0.7673580622903461</v>
       </c>
       <c r="AE59" t="n">
-        <v>-3.134463322926611</v>
+        <v>1.111535013719034</v>
       </c>
       <c r="AF59" t="n">
-        <v>-3.95741869683545</v>
+        <v>1.207913742129166</v>
       </c>
       <c r="AG59" t="n">
-        <v>4.872818050020378</v>
+        <v>-0.5706700780192298</v>
       </c>
       <c r="AH59" t="n">
-        <v>-16.43549007796688</v>
+        <v>2.669257444172383</v>
       </c>
       <c r="AI59" t="n">
-        <v>-10.16479023868489</v>
+        <v>1.934877311406445</v>
       </c>
       <c r="AJ59" t="n">
-        <v>-3.247526537411581</v>
+        <v>1.124776179871539</v>
       </c>
       <c r="AK59" t="n">
-        <v>3.719584868804998</v>
+        <v>-0.4356115425387611</v>
       </c>
       <c r="AL59" t="n">
-        <v>0.7498642416629817</v>
+        <v>-0.08781881057345343</v>
       </c>
       <c r="AM59" t="n">
-        <v>5.209669876053139</v>
+        <v>-0.6101197877908129</v>
       </c>
       <c r="AN59" t="n">
-        <v>4.480295228597527</v>
+        <v>-0.5247005739609426</v>
       </c>
       <c r="AO59" t="n">
-        <v>11.54970789650793</v>
+        <v>-1.352620319236408</v>
       </c>
       <c r="AP59" t="n">
         <v>32.98161518373895</v>
       </c>
       <c r="AQ59" t="n">
-        <v>32.35725869324523</v>
+        <v>38.31284892756008</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>7103</v>
+        <v>58</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -8675,66 +8675,66 @@
         <v>33.45224723994495</v>
       </c>
       <c r="Y60" t="n">
-        <v>-0.00457567768857442</v>
+        <v>1.097716185359828</v>
       </c>
       <c r="Z60" t="n">
-        <v>0.09452247214321909</v>
+        <v>-1.356432152602609</v>
       </c>
       <c r="AA60" t="n">
-        <v>-0.03229688758963715</v>
+        <v>1.495525717487525</v>
       </c>
       <c r="AB60" t="n">
-        <v>-0.02411546652337837</v>
+        <v>1.378119323678454</v>
       </c>
       <c r="AC60" t="n">
-        <v>0.005323131534817256</v>
+        <v>-0.07638889041558977</v>
       </c>
       <c r="AD60" t="n">
-        <v>0.3309386575076832</v>
+        <v>-4.749091146308612</v>
       </c>
       <c r="AE60" t="n">
-        <v>0.02437659795990078</v>
+        <v>-0.3498131237382013</v>
       </c>
       <c r="AF60" t="n">
-        <v>-0.04957911345419382</v>
+        <v>1.74353199895365</v>
       </c>
       <c r="AG60" t="n">
-        <v>0.0539957789962018</v>
+        <v>-0.7748592379629905</v>
       </c>
       <c r="AH60" t="n">
-        <v>-0.104678588655711</v>
+        <v>2.534229682374635</v>
       </c>
       <c r="AI60" t="n">
-        <v>0.1345140837931337</v>
+        <v>-1.930326451454089</v>
       </c>
       <c r="AJ60" t="n">
-        <v>-0.07072107311195289</v>
+        <v>2.046926876368194</v>
       </c>
       <c r="AK60" t="n">
-        <v>0.003834955944035113</v>
+        <v>-0.05503302472264943</v>
       </c>
       <c r="AL60" t="n">
-        <v>0.02036914860197104</v>
+        <v>-0.2923047552437094</v>
       </c>
       <c r="AM60" t="n">
-        <v>-0.04367180428962727</v>
+        <v>1.658759945234602</v>
       </c>
       <c r="AN60" t="n">
-        <v>0.02911063884737662</v>
+        <v>-0.4177483472454535</v>
       </c>
       <c r="AO60" t="n">
-        <v>0.1032852021907434</v>
+        <v>-1.482180543556978</v>
       </c>
       <c r="AP60" t="n">
         <v>32.98161518373895</v>
       </c>
       <c r="AQ60" t="n">
-        <v>26.22787251695764</v>
+        <v>33.45224723994495</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>7104</v>
+        <v>59</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -8812,61 +8812,61 @@
         <v>27.04580356739828</v>
       </c>
       <c r="Y61" t="n">
-        <v>-0.1340819889469009</v>
+        <v>-0.2065540176303172</v>
       </c>
       <c r="Z61" t="n">
-        <v>-0.9740586917346887</v>
+        <v>-1.500542599089935</v>
       </c>
       <c r="AA61" t="n">
-        <v>0.2684211197574105</v>
+        <v>1.215588606736491</v>
       </c>
       <c r="AB61" t="n">
-        <v>0.2360897583008826</v>
+        <v>1.165781972327536</v>
       </c>
       <c r="AC61" t="n">
-        <v>-0.05050160256410719</v>
+        <v>-0.07779798754713338</v>
       </c>
       <c r="AD61" t="n">
-        <v>-3.080189343680602</v>
+        <v>-4.745048078390872</v>
       </c>
       <c r="AE61" t="n">
-        <v>-0.1932307281451145</v>
+        <v>-0.2976729651870781</v>
       </c>
       <c r="AF61" t="n">
-        <v>-0.05111067927019525</v>
+        <v>-0.07873627345470111</v>
       </c>
       <c r="AG61" t="n">
-        <v>-0.4690470809312057</v>
+        <v>-0.7225695246994054</v>
       </c>
       <c r="AH61" t="n">
-        <v>0.5653783978738932</v>
+        <v>1.673052874243844</v>
       </c>
       <c r="AI61" t="n">
-        <v>-1.510648523068684</v>
+        <v>-2.327162090284265</v>
       </c>
       <c r="AJ61" t="n">
-        <v>0.7184927474187449</v>
+        <v>1.908926344675928</v>
       </c>
       <c r="AK61" t="n">
-        <v>-0.03572400816615126</v>
+        <v>-0.05503302472264943</v>
       </c>
       <c r="AL61" t="n">
-        <v>-0.0241612686881263</v>
+        <v>-0.03722056301353383</v>
       </c>
       <c r="AM61" t="n">
-        <v>-0.07782723088478286</v>
+        <v>-0.1198932634170607</v>
       </c>
       <c r="AN61" t="n">
-        <v>-0.2657445076861927</v>
+        <v>-0.4093808285280701</v>
       </c>
       <c r="AO61" t="n">
-        <v>-0.8578679859248449</v>
+        <v>-1.32155019835944</v>
       </c>
       <c r="AP61" t="n">
         <v>32.98161518373895</v>
       </c>
       <c r="AQ61" t="n">
-        <v>23.83746579513301</v>
+        <v>27.04580356739828</v>
       </c>
     </row>
   </sheetData>
